--- a/cluster.xlsx
+++ b/cluster.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gio\Documents\INSPER\IC_EC_eletonicos\AnaliseSurvey\IC_AnaliseSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24B8EEE-D254-4D5D-ACFF-4A947A8475F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41F92E9-E0FA-4FB2-B973-1DECED219C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados clusterizados" sheetId="1" r:id="rId1"/>
     <sheet name="Média e Moda" sheetId="2" r:id="rId2"/>
+    <sheet name="analise" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dados clusterizados'!$A$1:$AA$166</definedName>
@@ -183,8 +184,157 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={7311F004-60CB-4234-B933-0FC1D7284BB9}</author>
+    <author>tc={D6E5F959-0CCC-4F48-8976-DA64B330437A}</author>
+    <author>tc={35C9BCE6-80E8-4B4D-B3AD-F3848173E9FB}</author>
+    <author>tc={32035AC6-425B-45FF-838D-73EA9B35974E}</author>
+    <author>tc={F5CB5B9A-7F39-4B44-A827-11B54F1D27B2}</author>
+    <author>tc={FB75466F-D3FB-4E6F-83CA-5F07BCBD1112}</author>
+    <author>tc={21A7A627-09B8-4AB4-BD17-8EE253564006}</author>
+    <author>tc={E9D490AC-E5C3-466F-B511-B1337BC41079}</author>
+    <author>tc={C00E39DC-4613-4DEF-9791-C3766B142C43}</author>
+    <author>tc={7BB42702-A871-47FB-B23D-A545C45E0E59}</author>
+    <author>tc={48342535-C249-4AEF-A535-0C80905D1692}</author>
+  </authors>
+  <commentList>
+    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{7311F004-60CB-4234-B933-0FC1D7284BB9}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    # 0 = Não binario
+# 1 = feminino
+# 2 = masculino</t>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="1" shapeId="0" xr:uid="{D6E5F959-0CCC-4F48-8976-DA64B330437A}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    # 1100 ='Até R$ 1.100', 
+# 1650 = 'de R$ 1.100 a R$ 2.200'
+# 3300 = 'de R$ 2.200 a R$ 4.400'
+# 7700 = 'de R$ 4.400 a R$ 11.000'
+# 16500 = 'de R$ 11.000 a R$ 22.000'
+# 22000 = 'Acima de R$ 22.000'</t>
+      </text>
+    </comment>
+    <comment ref="A17" authorId="2" shapeId="0" xr:uid="{35C9BCE6-80E8-4B4D-B3AD-F3848173E9FB}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    # 0 = Apenas estudo (Graduação, Pós...)
+# 1 = Estudo e trabalho</t>
+      </text>
+    </comment>
+    <comment ref="A20" authorId="3" shapeId="0" xr:uid="{32035AC6-425B-45FF-838D-73EA9B35974E}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    # 0 = discordo totalmente
+# 1 = discordo parcialmente
+# 2 = nem concordo nem discordo
+# 3 = concordo parcialmente
+# 4 = concordo totalmente</t>
+      </text>
+    </comment>
+    <comment ref="A28" authorId="4" shapeId="0" xr:uid="{F5CB5B9A-7F39-4B44-A827-11B54F1D27B2}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    # 0 = Componentes envelhecidos ou quebrados'
+# 1 = 'Conserto muito caro'
+# 2 = 'Funções não atendiam mais, aplicativos lentos', 
+# 3 = 'Novos modelos, novas tendências', 
+# 4 = 'Outro'</t>
+      </text>
+    </comment>
+    <comment ref="A30" authorId="5" shapeId="0" xr:uid="{FB75466F-D3FB-4E6F-83CA-5F07BCBD1112}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    #0'Deixei em casa', 
+#1'Doei', 
+#0 = Deixei em casa
+#1 = Doei
+#2 = 'Joguei no lixo comum', 
+#3 = 'Levei para a operadora', 
+#4'= Outro', 
+#5 = Reciclei
+#6 = Vendi
+#5'Reciclei', 
+#6'Vendi'</t>
+      </text>
+    </comment>
+    <comment ref="A31" authorId="6" shapeId="0" xr:uid="{21A7A627-09B8-4AB4-BD17-8EE253564006}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    # 1 = 1 aparelho gaurdado em casa
+# 2 = 2 aparelhos
+# 4 = 3 a 5 aparelhos
+# 5 = 5 aparelhos</t>
+      </text>
+    </comment>
+    <comment ref="A32" authorId="7" shapeId="0" xr:uid="{E9D490AC-E5C3-466F-B511-B1337BC41079}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    #0 = 'Não', 
+#1 = 'Sim e já fiz', 
+#2 = 'Sim, porém nunca fiz'</t>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="8" shapeId="0" xr:uid="{C00E39DC-4613-4DEF-9791-C3766B142C43}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    # 700 ='Até R$ 700', 
+# 950 = 'de R$ 700 a R$ 1.200'
+# 1850 = 'de R$ 1.200 a R$ 2.500'
+# 3500 = 'de R$ 2.500 a R$ 4.500'
+# 6000 = 'de R$ 4.500 a R$ 7.500'
+# 9450 = 'de R$ 7.500 a R$ 11.000'
+# 11000 = 'Acima de R$ 11.000'</t>
+      </text>
+    </comment>
+    <comment ref="A35" authorId="9" shapeId="0" xr:uid="{7BB42702-A871-47FB-B23D-A545C45E0E59}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    # 2 = Não, apenas se eu já estiver procurando um aparelho novo
+# 1 = Sim, fico tentada(o) a trocar de celular sempre que vejo uma promoção
+# 0 = Não, não faz diferença para mim</t>
+      </text>
+    </comment>
+    <comment ref="A39" authorId="10" shapeId="0" xr:uid="{48342535-C249-4AEF-A535-0C80905D1692}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    # 2 = Mais
+# 1 = Na media
+# 0 = Menos</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="80">
   <si>
     <t>GENERO</t>
   </si>
@@ -347,12 +497,93 @@
   <si>
     <t>Por quanto tempo (em MESES) você usou seu ÚLTIMO celular antes de descartá-lo? - escreva APENAS o numero na resposta</t>
   </si>
+  <si>
+    <t xml:space="preserve"> = Acima de R$ 22.000</t>
+  </si>
+  <si>
+    <t>Feminino</t>
+  </si>
+  <si>
+    <t>= de R$ 11.000 a R$ 22.000</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>= Componentes envelhecidos ou quebrados</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = Apenas estudo (Graduação, Pós...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = de R$ 4.400 a R$ 11.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = 'Deixei em casa', </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = 2 aparelhos guardados</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = 'Sim, porém nunca fiz'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = não</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = 'de R$ 2.500 a R$ 4.500'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = 'de R$ 7.500 a R$ 11.000'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = Não, apenas se eu já estiver procurando um aparelho novo</t>
+  </si>
+  <si>
+    <t>2,8928365 ano</t>
+  </si>
+  <si>
+    <t>3,2244202 ano</t>
+  </si>
+  <si>
+    <t>3,525004 ano</t>
+  </si>
+  <si>
+    <t>3,39742039 ano</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 = Mais</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 = Na media</t>
+  </si>
+  <si>
+    <t>1 = Na media</t>
+  </si>
+  <si>
+    <t>2,39883596 ano</t>
+  </si>
+  <si>
+    <t>2,51891943 ano</t>
+  </si>
+  <si>
+    <t>2,35275258 ano</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2,19233574 ano</t>
+  </si>
+  <si>
+    <t>meses que espera a mais do que realmente é</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,14 +605,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,8 +661,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -591,11 +846,140 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -728,11 +1112,80 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -741,9 +1194,219 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1167,11 +1830,90 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A15" dT="2021-12-16T19:46:15.33" personId="{52DB29C1-C99F-4501-A100-5774F2B200C7}" id="{7311F004-60CB-4234-B933-0FC1D7284BB9}">
+    <text># 0 = Não binario
+# 1 = feminino
+# 2 = masculino</text>
+  </threadedComment>
+  <threadedComment ref="A16" dT="2021-12-16T19:45:54.69" personId="{52DB29C1-C99F-4501-A100-5774F2B200C7}" id="{D6E5F959-0CCC-4F48-8976-DA64B330437A}">
+    <text># 1100 ='Até R$ 1.100', 
+# 1650 = 'de R$ 1.100 a R$ 2.200'
+# 3300 = 'de R$ 2.200 a R$ 4.400'
+# 7700 = 'de R$ 4.400 a R$ 11.000'
+# 16500 = 'de R$ 11.000 a R$ 22.000'
+# 22000 = 'Acima de R$ 22.000'</text>
+  </threadedComment>
+  <threadedComment ref="A17" dT="2021-12-16T19:46:05.06" personId="{52DB29C1-C99F-4501-A100-5774F2B200C7}" id="{35C9BCE6-80E8-4B4D-B3AD-F3848173E9FB}">
+    <text># 0 = Apenas estudo (Graduação, Pós...)
+# 1 = Estudo e trabalho</text>
+  </threadedComment>
+  <threadedComment ref="A20" dT="2021-12-16T19:46:32.27" personId="{52DB29C1-C99F-4501-A100-5774F2B200C7}" id="{32035AC6-425B-45FF-838D-73EA9B35974E}">
+    <text># 0 = discordo totalmente
+# 1 = discordo parcialmente
+# 2 = nem concordo nem discordo
+# 3 = concordo parcialmente
+# 4 = concordo totalmente</text>
+  </threadedComment>
+  <threadedComment ref="A28" dT="2021-12-16T19:49:16.32" personId="{52DB29C1-C99F-4501-A100-5774F2B200C7}" id="{F5CB5B9A-7F39-4B44-A827-11B54F1D27B2}">
+    <text># 0 = Componentes envelhecidos ou quebrados'
+# 1 = 'Conserto muito caro'
+# 2 = 'Funções não atendiam mais, aplicativos lentos', 
+# 3 = 'Novos modelos, novas tendências', 
+# 4 = 'Outro'</text>
+  </threadedComment>
+  <threadedComment ref="A30" dT="2021-12-16T19:50:50.46" personId="{52DB29C1-C99F-4501-A100-5774F2B200C7}" id="{FB75466F-D3FB-4E6F-83CA-5F07BCBD1112}">
+    <text>#0'Deixei em casa', 
+#1'Doei', 
+#0 = Deixei em casa
+#1 = Doei
+#2 = 'Joguei no lixo comum', 
+#3 = 'Levei para a operadora', 
+#4'= Outro', 
+#5 = Reciclei
+#6 = Vendi
+#5'Reciclei', 
+#6'Vendi'</text>
+  </threadedComment>
+  <threadedComment ref="A31" dT="2021-12-16T19:47:21.45" personId="{52DB29C1-C99F-4501-A100-5774F2B200C7}" id="{21A7A627-09B8-4AB4-BD17-8EE253564006}">
+    <text># 1 = 1 aparelho gaurdado em casa
+# 2 = 2 aparelhos
+# 4 = 3 a 5 aparelhos
+# 5 = 5 aparelhos</text>
+  </threadedComment>
+  <threadedComment ref="A32" dT="2021-12-16T19:51:34.75" personId="{52DB29C1-C99F-4501-A100-5774F2B200C7}" id="{E9D490AC-E5C3-466F-B511-B1337BC41079}">
+    <text>#0 = 'Não', 
+#1 = 'Sim e já fiz', 
+#2 = 'Sim, porém nunca fiz'</text>
+  </threadedComment>
+  <threadedComment ref="A33" dT="2021-12-16T19:47:31.83" personId="{52DB29C1-C99F-4501-A100-5774F2B200C7}" id="{C00E39DC-4613-4DEF-9791-C3766B142C43}">
+    <text># 700 ='Até R$ 700', 
+# 950 = 'de R$ 700 a R$ 1.200'
+# 1850 = 'de R$ 1.200 a R$ 2.500'
+# 3500 = 'de R$ 2.500 a R$ 4.500'
+# 6000 = 'de R$ 4.500 a R$ 7.500'
+# 9450 = 'de R$ 7.500 a R$ 11.000'
+# 11000 = 'Acima de R$ 11.000'</text>
+  </threadedComment>
+  <threadedComment ref="A35" dT="2021-12-16T19:47:49.20" personId="{52DB29C1-C99F-4501-A100-5774F2B200C7}" id="{7BB42702-A871-47FB-B23D-A545C45E0E59}">
+    <text># 2 = Não, apenas se eu já estiver procurando um aparelho novo
+# 1 = Sim, fico tentada(o) a trocar de celular sempre que vejo uma promoção
+# 0 = Não, não faz diferença para mim</text>
+  </threadedComment>
+  <threadedComment ref="A39" dT="2021-12-16T19:47:40.22" personId="{52DB29C1-C99F-4501-A100-5774F2B200C7}" id="{48342535-C249-4AEF-A535-0C80905D1692}">
+    <text># 2 = Mais
+# 1 = Na media
+# 0 = Menos</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE168"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -3605,107 +4347,107 @@
         <v>26</v>
       </c>
       <c r="B30" s="13">
-        <f>AVERAGE(B2:B29)</f>
+        <f t="shared" ref="B30:AA30" si="0">AVERAGE(B2:B29)</f>
         <v>1.5714285714285714</v>
       </c>
       <c r="C30" s="13">
-        <f>AVERAGE(C2:C29)</f>
+        <f t="shared" si="0"/>
         <v>5421.4285714285716</v>
       </c>
       <c r="D30" s="13">
-        <f>AVERAGE(D2:D29)</f>
+        <f t="shared" si="0"/>
         <v>0.21428571428571427</v>
       </c>
       <c r="E30" s="13">
-        <f>AVERAGE(E2:E29)</f>
+        <f t="shared" si="0"/>
         <v>28.785714285714285</v>
       </c>
       <c r="F30" s="13">
-        <f>AVERAGE(F2:F29)</f>
+        <f t="shared" si="0"/>
         <v>5.6785714285714288</v>
       </c>
       <c r="G30" s="13">
-        <f>AVERAGE(G2:G29)</f>
+        <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
       <c r="H30" s="13">
-        <f>AVERAGE(H2:H29)</f>
+        <f t="shared" si="0"/>
         <v>2.9642857142857144</v>
       </c>
       <c r="I30" s="13">
-        <f>AVERAGE(I2:I29)</f>
+        <f t="shared" si="0"/>
         <v>0.8928571428571429</v>
       </c>
       <c r="J30" s="13">
-        <f>AVERAGE(J2:J29)</f>
+        <f t="shared" si="0"/>
         <v>2.2857142857142856</v>
       </c>
       <c r="K30" s="13">
-        <f>AVERAGE(K2:K29)</f>
+        <f t="shared" si="0"/>
         <v>1.0357142857142858</v>
       </c>
       <c r="L30" s="13">
-        <f>AVERAGE(L2:L29)</f>
+        <f t="shared" si="0"/>
         <v>2.5357142857142856</v>
       </c>
       <c r="M30" s="13">
-        <f>AVERAGE(M2:M29)</f>
+        <f t="shared" si="0"/>
         <v>2.5714285714285716</v>
       </c>
       <c r="N30" s="13">
-        <f>AVERAGE(N2:N29)</f>
+        <f t="shared" si="0"/>
         <v>0.5357142857142857</v>
       </c>
       <c r="O30" s="13">
-        <f>AVERAGE(O2:O29)</f>
+        <f t="shared" si="0"/>
         <v>1.2142857142857142</v>
       </c>
       <c r="P30" s="13">
-        <f>AVERAGE(P2:P29)</f>
+        <f t="shared" si="0"/>
         <v>5.6785714285714288</v>
       </c>
       <c r="Q30" s="13">
-        <f>AVERAGE(Q2:Q29)</f>
+        <f t="shared" si="0"/>
         <v>1.3571428571428572</v>
       </c>
       <c r="R30" s="13">
-        <f>AVERAGE(R2:R29)</f>
+        <f t="shared" si="0"/>
         <v>2.0714285714285716</v>
       </c>
       <c r="S30" s="13">
-        <f>AVERAGE(S2:S29)</f>
+        <f t="shared" si="0"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="T30" s="13">
-        <f>AVERAGE(T2:T29)</f>
+        <f t="shared" si="0"/>
         <v>3051.7857142857142</v>
       </c>
       <c r="U30" s="13">
-        <f>AVERAGE(U2:U29)</f>
+        <f t="shared" si="0"/>
         <v>3.3928571428571428</v>
       </c>
       <c r="V30" s="13">
-        <f>AVERAGE(V2:V29)</f>
+        <f t="shared" si="0"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="W30" s="13">
-        <f>AVERAGE(W2:W29)</f>
+        <f t="shared" si="0"/>
         <v>8.0357142857142865</v>
       </c>
       <c r="X30" s="13">
-        <f>AVERAGE(X2:X29)</f>
+        <f t="shared" si="0"/>
         <v>9.0357142857142865</v>
       </c>
       <c r="Y30" s="13">
-        <f>AVERAGE(Y2:Y29)</f>
+        <f t="shared" si="0"/>
         <v>34.714285714285715</v>
       </c>
       <c r="Z30" s="13">
-        <f>AVERAGE(Z2:Z29)</f>
+        <f t="shared" si="0"/>
         <v>1.3571428571428572</v>
       </c>
       <c r="AA30" s="14">
-        <f>AVERAGE(AA2:AA29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3714,107 +4456,107 @@
         <v>27</v>
       </c>
       <c r="B31" s="16">
-        <f>MODE(B2:B29)</f>
+        <f t="shared" ref="B31:AA31" si="1">MODE(B2:B29)</f>
         <v>2</v>
       </c>
       <c r="C31" s="16">
-        <f>MODE(C2:C29)</f>
+        <f t="shared" si="1"/>
         <v>7700</v>
       </c>
       <c r="D31" s="16">
-        <f>MODE(D2:D29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E31" s="16">
-        <f>MODE(E2:E29)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="F31" s="16">
-        <f>MODE(F2:F29)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G31" s="16">
-        <f>MODE(G2:G29)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H31" s="16">
-        <f>MODE(H2:H29)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I31" s="16">
-        <f>MODE(I2:I29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J31" s="16">
-        <f>MODE(J2:J29)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K31" s="16">
-        <f>MODE(K2:K29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L31" s="16">
-        <f>MODE(L2:L29)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="M31" s="16">
-        <f>MODE(M2:M29)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="N31" s="16">
-        <f>MODE(N2:N29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O31" s="16">
-        <f>MODE(O2:O29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P31" s="16">
-        <f>MODE(P2:P29)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="Q31" s="16">
-        <f>MODE(Q2:Q29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R31" s="16">
-        <f>MODE(R2:R29)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="S31" s="16">
-        <f>MODE(S2:S29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T31" s="16">
-        <f>MODE(T2:T29)</f>
+        <f t="shared" si="1"/>
         <v>3500</v>
       </c>
       <c r="U31" s="16">
-        <f>MODE(U2:U29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V31" s="16">
-        <f>MODE(V2:V29)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="W31" s="16">
-        <f>MODE(W2:W29)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="X31" s="16">
-        <f>MODE(X2:X29)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="Y31" s="16">
-        <f>MODE(Y2:Y29)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="Z31" s="16">
-        <f>MODE(Z2:Z29)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AA31" s="17">
-        <f>MODE(AA2:AA29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11127,107 +11869,107 @@
         <v>26</v>
       </c>
       <c r="B120" s="19">
-        <f>AVERAGE(B32:B119)</f>
+        <f t="shared" ref="B120:AA120" si="2">AVERAGE(B32:B119)</f>
         <v>1.7386363636363635</v>
       </c>
       <c r="C120" s="19">
-        <f>AVERAGE(C32:C119)</f>
+        <f t="shared" si="2"/>
         <v>22000</v>
       </c>
       <c r="D120" s="19">
-        <f>AVERAGE(D32:D119)</f>
+        <f t="shared" si="2"/>
         <v>0.26136363636363635</v>
       </c>
       <c r="E120" s="19">
-        <f>AVERAGE(E32:E119)</f>
+        <f t="shared" si="2"/>
         <v>30.227272727272727</v>
       </c>
       <c r="F120" s="19">
-        <f>AVERAGE(F32:F119)</f>
+        <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
       <c r="G120" s="19">
-        <f>AVERAGE(G32:G119)</f>
+        <f t="shared" si="2"/>
         <v>1.5454545454545454</v>
       </c>
       <c r="H120" s="19">
-        <f>AVERAGE(H32:H119)</f>
+        <f t="shared" si="2"/>
         <v>2.4545454545454546</v>
       </c>
       <c r="I120" s="19">
-        <f>AVERAGE(I32:I119)</f>
+        <f t="shared" si="2"/>
         <v>0.45454545454545453</v>
       </c>
       <c r="J120" s="19">
-        <f>AVERAGE(J32:J119)</f>
+        <f t="shared" si="2"/>
         <v>2.3636363636363638</v>
       </c>
       <c r="K120" s="19">
-        <f>AVERAGE(K32:K119)</f>
+        <f t="shared" si="2"/>
         <v>1.7727272727272727</v>
       </c>
       <c r="L120" s="19">
-        <f>AVERAGE(L32:L119)</f>
+        <f t="shared" si="2"/>
         <v>2.9772727272727271</v>
       </c>
       <c r="M120" s="19">
-        <f>AVERAGE(M32:M119)</f>
+        <f t="shared" si="2"/>
         <v>1.9204545454545454</v>
       </c>
       <c r="N120" s="19">
-        <f>AVERAGE(N32:N119)</f>
+        <f t="shared" si="2"/>
         <v>0.70454545454545459</v>
       </c>
       <c r="O120" s="19">
-        <f>AVERAGE(O32:O119)</f>
+        <f t="shared" si="2"/>
         <v>1.4545454545454546</v>
       </c>
       <c r="P120" s="19">
-        <f>AVERAGE(P32:P119)</f>
+        <f t="shared" si="2"/>
         <v>5.9545454545454541</v>
       </c>
       <c r="Q120" s="19">
-        <f>AVERAGE(Q32:Q119)</f>
+        <f t="shared" si="2"/>
         <v>1.8295454545454546</v>
       </c>
       <c r="R120" s="19">
-        <f>AVERAGE(R32:R119)</f>
+        <f t="shared" si="2"/>
         <v>1.8977272727272727</v>
       </c>
       <c r="S120" s="19">
-        <f>AVERAGE(S32:S119)</f>
+        <f t="shared" si="2"/>
         <v>0.82954545454545459</v>
       </c>
       <c r="T120" s="19">
-        <f>AVERAGE(T32:T119)</f>
+        <f t="shared" si="2"/>
         <v>4078.409090909091</v>
       </c>
       <c r="U120" s="19">
-        <f>AVERAGE(U32:U119)</f>
+        <f t="shared" si="2"/>
         <v>4.3863636363636367</v>
       </c>
       <c r="V120" s="19">
-        <f>AVERAGE(V32:V119)</f>
+        <f t="shared" si="2"/>
         <v>1.7159090909090908</v>
       </c>
       <c r="W120" s="19">
-        <f>AVERAGE(W32:W119)</f>
+        <f t="shared" si="2"/>
         <v>7.8295454545454541</v>
       </c>
       <c r="X120" s="19">
-        <f>AVERAGE(X32:X119)</f>
+        <f t="shared" si="2"/>
         <v>8.5113636363636367</v>
       </c>
       <c r="Y120" s="19">
-        <f>AVERAGE(Y32:Y119)</f>
+        <f t="shared" si="2"/>
         <v>38.69318181818182</v>
       </c>
       <c r="Z120" s="19">
-        <f>AVERAGE(Z32:Z119)</f>
+        <f t="shared" si="2"/>
         <v>0.88636363636363635</v>
       </c>
       <c r="AA120" s="19">
-        <f>AVERAGE(AA32:AA119)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -11236,107 +11978,107 @@
         <v>27</v>
       </c>
       <c r="B121" s="21">
-        <f>MODE(B32:B119)</f>
+        <f t="shared" ref="B121:AA121" si="3">MODE(B32:B119)</f>
         <v>2</v>
       </c>
       <c r="C121" s="21">
-        <f>MODE(C32:C119)</f>
+        <f t="shared" si="3"/>
         <v>22000</v>
       </c>
       <c r="D121" s="21">
-        <f>MODE(D32:D119)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E121" s="21">
-        <f>MODE(E32:E119)</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="F121" s="21">
-        <f>MODE(F32:F119)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G121" s="21">
-        <f>MODE(G32:G119)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H121" s="21">
-        <f>MODE(H32:H119)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I121" s="21">
-        <f>MODE(I32:I119)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J121" s="21">
-        <f>MODE(J32:J119)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="K121" s="21">
-        <f>MODE(K32:K119)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L121" s="21">
-        <f>MODE(L32:L119)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="M121" s="21">
-        <f>MODE(M32:M119)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N121" s="21">
-        <f>MODE(N32:N119)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O121" s="21">
-        <f>MODE(O32:O119)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P121" s="21">
-        <f>MODE(P32:P119)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="Q121" s="21">
-        <f>MODE(Q32:Q119)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R121" s="21">
-        <f>MODE(R32:R119)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="S121" s="21">
-        <f>MODE(S32:S119)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T121" s="21">
-        <f>MODE(T32:T119)</f>
+        <f t="shared" si="3"/>
         <v>3500</v>
       </c>
       <c r="U121" s="21">
-        <f>MODE(U32:U119)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="V121" s="21">
-        <f>MODE(V32:V119)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="W121" s="21">
-        <f>MODE(W32:W119)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="X121" s="21">
-        <f>MODE(X32:X119)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="Y121" s="21">
-        <f>MODE(Y32:Y119)</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="Z121" s="21">
-        <f>MODE(Z32:Z119)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AA121" s="21">
-        <f>MODE(AA32:AA119)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -13835,107 +14577,107 @@
         <v>26</v>
       </c>
       <c r="B152" s="27">
-        <f>AVERAGE(B122:B151)</f>
+        <f t="shared" ref="B152:AA152" si="4">AVERAGE(B122:B151)</f>
         <v>1.8333333333333333</v>
       </c>
       <c r="C152" s="27">
-        <f>AVERAGE(C122:C151)</f>
+        <f t="shared" si="4"/>
         <v>16500</v>
       </c>
       <c r="D152" s="27">
-        <f>AVERAGE(D122:D151)</f>
+        <f t="shared" si="4"/>
         <v>0.3</v>
       </c>
       <c r="E152" s="27">
-        <f>AVERAGE(E122:E151)</f>
+        <f t="shared" si="4"/>
         <v>28.233333333333334</v>
       </c>
       <c r="F152" s="27">
-        <f>AVERAGE(F122:F151)</f>
+        <f t="shared" si="4"/>
         <v>5.9333333333333336</v>
       </c>
       <c r="G152" s="27">
-        <f>AVERAGE(G122:G151)</f>
+        <f t="shared" si="4"/>
         <v>1.9666666666666666</v>
       </c>
       <c r="H152" s="27">
-        <f>AVERAGE(H122:H151)</f>
+        <f t="shared" si="4"/>
         <v>2.6333333333333333</v>
       </c>
       <c r="I152" s="27">
-        <f>AVERAGE(I122:I151)</f>
+        <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
       <c r="J152" s="27">
-        <f>AVERAGE(J122:J151)</f>
+        <f t="shared" si="4"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="K152" s="27">
-        <f>AVERAGE(K122:K151)</f>
+        <f t="shared" si="4"/>
         <v>1.7333333333333334</v>
       </c>
       <c r="L152" s="27">
-        <f>AVERAGE(L122:L151)</f>
+        <f t="shared" si="4"/>
         <v>2.4666666666666668</v>
       </c>
       <c r="M152" s="27">
-        <f>AVERAGE(M122:M151)</f>
+        <f t="shared" si="4"/>
         <v>2.0666666666666669</v>
       </c>
       <c r="N152" s="27">
-        <f>AVERAGE(N122:N151)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O152" s="27">
-        <f>AVERAGE(O122:O151)</f>
+        <f t="shared" si="4"/>
         <v>1.4333333333333333</v>
       </c>
       <c r="P152" s="27">
-        <f>AVERAGE(P122:P151)</f>
+        <f t="shared" si="4"/>
         <v>5.8</v>
       </c>
       <c r="Q152" s="27">
-        <f>AVERAGE(Q122:Q151)</f>
+        <f t="shared" si="4"/>
         <v>1.4666666666666666</v>
       </c>
       <c r="R152" s="27">
-        <f>AVERAGE(R122:R151)</f>
+        <f t="shared" si="4"/>
         <v>1.8333333333333333</v>
       </c>
       <c r="S152" s="27">
-        <f>AVERAGE(S122:S151)</f>
+        <f t="shared" si="4"/>
         <v>1.0333333333333334</v>
       </c>
       <c r="T152" s="27">
-        <f>AVERAGE(T122:T151)</f>
+        <f t="shared" si="4"/>
         <v>3238.3333333333335</v>
       </c>
       <c r="U152" s="27">
-        <f>AVERAGE(U122:U151)</f>
+        <f t="shared" si="4"/>
         <v>4.9666666666666668</v>
       </c>
       <c r="V152" s="27">
-        <f>AVERAGE(V122:V151)</f>
+        <f t="shared" si="4"/>
         <v>1.9</v>
       </c>
       <c r="W152" s="27">
-        <f>AVERAGE(W122:W151)</f>
+        <f t="shared" si="4"/>
         <v>7.7666666666666666</v>
       </c>
       <c r="X152" s="27">
-        <f>AVERAGE(X122:X151)</f>
+        <f t="shared" si="4"/>
         <v>8.0333333333333332</v>
       </c>
       <c r="Y152" s="27">
-        <f>AVERAGE(Y122:Y151)</f>
+        <f t="shared" si="4"/>
         <v>42.3</v>
       </c>
       <c r="Z152" s="27">
-        <f>AVERAGE(Z122:Z151)</f>
+        <f t="shared" si="4"/>
         <v>1.0666666666666667</v>
       </c>
       <c r="AA152" s="27">
-        <f>AVERAGE(AA122:AA151)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -13944,107 +14686,107 @@
         <v>27</v>
       </c>
       <c r="B153" s="29">
-        <f>MODE(B122:B151)</f>
+        <f t="shared" ref="B153:AA153" si="5">MODE(B122:B151)</f>
         <v>2</v>
       </c>
       <c r="C153" s="29">
-        <f>MODE(C122:C151)</f>
+        <f t="shared" si="5"/>
         <v>16500</v>
       </c>
       <c r="D153" s="29">
-        <f>MODE(D122:D151)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E153" s="29">
-        <f>MODE(E122:E151)</f>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="F153" s="29">
-        <f>MODE(F122:F151)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="G153" s="29">
-        <f>MODE(G122:G151)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H153" s="29">
-        <f>MODE(H122:H151)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="I153" s="29">
-        <f>MODE(I122:I151)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J153" s="29">
-        <f>MODE(J122:J151)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="K153" s="29">
-        <f>MODE(K122:K151)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L153" s="29">
-        <f>MODE(L122:L151)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="M153" s="29">
-        <f>MODE(M122:M151)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="N153" s="29">
-        <f>MODE(N122:N151)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O153" s="29">
-        <f>MODE(O122:O151)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P153" s="29">
-        <f>MODE(P122:P151)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="Q153" s="29">
-        <f>MODE(Q122:Q151)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R153" s="29">
-        <f>MODE(R122:R151)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="S153" s="29">
-        <f>MODE(S122:S151)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="T153" s="29">
-        <f>MODE(T122:T151)</f>
+        <f t="shared" si="5"/>
         <v>3500</v>
       </c>
       <c r="U153" s="29">
-        <f>MODE(U122:U151)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V153" s="29">
-        <f>MODE(V122:V151)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="W153" s="29">
-        <f>MODE(W122:W151)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="X153" s="29">
-        <f>MODE(X122:X151)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="Y153" s="29">
-        <f>MODE(Y122:Y151)</f>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="Z153" s="29">
-        <f>MODE(Z122:Z151)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AA153" s="29">
-        <f>MODE(AA122:AA151)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -15132,107 +15874,107 @@
         <v>26</v>
       </c>
       <c r="B167" s="23">
-        <f>AVERAGE(B154:B166)</f>
+        <f t="shared" ref="B167:AA167" si="6">AVERAGE(B154:B166)</f>
         <v>1.4615384615384615</v>
       </c>
       <c r="C167" s="23">
-        <f>AVERAGE(C154:C166)</f>
+        <f t="shared" si="6"/>
         <v>21576.923076923078</v>
       </c>
       <c r="D167" s="23">
-        <f>AVERAGE(D154:D166)</f>
+        <f t="shared" si="6"/>
         <v>0.38461538461538464</v>
       </c>
       <c r="E167" s="23">
-        <f>AVERAGE(E154:E166)</f>
+        <f t="shared" si="6"/>
         <v>26.307692307692307</v>
       </c>
       <c r="F167" s="23">
-        <f>AVERAGE(F154:F166)</f>
+        <f t="shared" si="6"/>
         <v>4.6923076923076925</v>
       </c>
       <c r="G167" s="23">
-        <f>AVERAGE(G154:G166)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="H167" s="23">
-        <f>AVERAGE(H154:H166)</f>
+        <f t="shared" si="6"/>
         <v>1.1538461538461537</v>
       </c>
       <c r="I167" s="23">
-        <f>AVERAGE(I154:I166)</f>
+        <f t="shared" si="6"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="J167" s="23">
-        <f>AVERAGE(J154:J166)</f>
+        <f t="shared" si="6"/>
         <v>2.0769230769230771</v>
       </c>
       <c r="K167" s="23">
-        <f>AVERAGE(K154:K166)</f>
+        <f t="shared" si="6"/>
         <v>1.7692307692307692</v>
       </c>
       <c r="L167" s="23">
-        <f>AVERAGE(L154:L166)</f>
+        <f t="shared" si="6"/>
         <v>3.7692307692307692</v>
       </c>
       <c r="M167" s="23">
-        <f>AVERAGE(M154:M166)</f>
+        <f t="shared" si="6"/>
         <v>2.4615384615384617</v>
       </c>
       <c r="N167" s="23">
-        <f>AVERAGE(N154:N166)</f>
+        <f t="shared" si="6"/>
         <v>0.84615384615384615</v>
       </c>
       <c r="O167" s="23">
-        <f>AVERAGE(O154:O166)</f>
+        <f t="shared" si="6"/>
         <v>1.7692307692307692</v>
       </c>
       <c r="P167" s="23">
-        <f>AVERAGE(P154:P166)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="Q167" s="23">
-        <f>AVERAGE(Q154:Q166)</f>
+        <f t="shared" si="6"/>
         <v>1.3846153846153846</v>
       </c>
       <c r="R167" s="23">
-        <f>AVERAGE(R154:R166)</f>
+        <f t="shared" si="6"/>
         <v>2.0769230769230771</v>
       </c>
       <c r="S167" s="23">
-        <f>AVERAGE(S154:S166)</f>
+        <f t="shared" si="6"/>
         <v>0.61538461538461542</v>
       </c>
       <c r="T167" s="23">
-        <f>AVERAGE(T154:T166)</f>
+        <f t="shared" si="6"/>
         <v>9688.461538461539</v>
       </c>
       <c r="U167" s="23">
-        <f>AVERAGE(U154:U166)</f>
+        <f t="shared" si="6"/>
         <v>6.9230769230769234</v>
       </c>
       <c r="V167" s="23">
-        <f>AVERAGE(V154:V166)</f>
+        <f t="shared" si="6"/>
         <v>1.5384615384615385</v>
       </c>
       <c r="W167" s="23">
-        <f>AVERAGE(W154:W166)</f>
+        <f t="shared" si="6"/>
         <v>7.615384615384615</v>
       </c>
       <c r="X167" s="23">
-        <f>AVERAGE(X154:X166)</f>
+        <f t="shared" si="6"/>
         <v>8.4615384615384617</v>
       </c>
       <c r="Y167" s="23">
-        <f>AVERAGE(Y154:Y166)</f>
+        <f t="shared" si="6"/>
         <v>40.769230769230766</v>
       </c>
       <c r="Z167" s="23">
-        <f>AVERAGE(Z154:Z166)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AA167" s="23">
-        <f>AVERAGE(AA154:AA166)</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -15241,107 +15983,107 @@
         <v>27</v>
       </c>
       <c r="B168" s="25">
-        <f>MODE(B154:B166)</f>
+        <f t="shared" ref="B168:AA168" si="7">MODE(B154:B166)</f>
         <v>1</v>
       </c>
       <c r="C168" s="25">
-        <f>MODE(C154:C166)</f>
+        <f t="shared" si="7"/>
         <v>22000</v>
       </c>
       <c r="D168" s="25">
-        <f>MODE(D154:D166)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E168" s="25">
-        <f>MODE(E154:E166)</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="F168" s="25">
-        <f>MODE(F154:F166)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="G168" s="25">
-        <f>MODE(G154:G166)</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="H168" s="25">
-        <f>MODE(H154:H166)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="I168" s="25">
-        <f>MODE(I154:I166)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J168" s="25">
-        <f>MODE(J154:J166)</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="K168" s="25">
-        <f>MODE(K154:K166)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L168" s="25">
-        <f>MODE(L154:L166)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="M168" s="25">
-        <f>MODE(M154:M166)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="N168" s="25">
-        <f>MODE(N154:N166)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O168" s="25">
-        <f>MODE(O154:O166)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P168" s="25">
-        <f>MODE(P154:P166)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="Q168" s="25">
-        <f>MODE(Q154:Q166)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R168" s="25">
-        <f>MODE(R154:R166)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="S168" s="25">
-        <f>MODE(S154:S166)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T168" s="25">
-        <f>MODE(T154:T166)</f>
+        <f t="shared" si="7"/>
         <v>9450</v>
       </c>
       <c r="U168" s="25">
-        <f>MODE(U154:U166)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="V168" s="25">
-        <f>MODE(V154:V166)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="W168" s="25">
-        <f>MODE(W154:W166)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="X168" s="25">
-        <f>MODE(X154:X166)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="Y168" s="25">
-        <f>MODE(Y154:Y166)</f>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="Z168" s="25">
-        <f>MODE(Z154:Z166)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AA168" s="25">
-        <f>MODE(AA154:AA166)</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -15359,13 +16101,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6607569-6B1C-4B8A-A79C-1F126176D788}">
   <dimension ref="A1:AB40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -15640,10 +16383,7 @@
       <c r="W4" s="30"/>
       <c r="X4" s="30"/>
       <c r="Y4" s="30"/>
-      <c r="Z4" s="30">
-        <f>Z2-F2</f>
-        <v>5.9285714285714306</v>
-      </c>
+      <c r="Z4" s="30"/>
       <c r="AA4" s="30"/>
       <c r="AB4" s="30"/>
     </row>
@@ -15838,10 +16578,7 @@
       <c r="W7" s="30"/>
       <c r="X7" s="30"/>
       <c r="Y7" s="30"/>
-      <c r="Z7" s="30">
-        <f>Z5-F5</f>
-        <v>8.4659090909090935</v>
-      </c>
+      <c r="Z7" s="30"/>
       <c r="AA7" s="30"/>
       <c r="AB7" s="30"/>
     </row>
@@ -16036,10 +16773,7 @@
       <c r="W10" s="30"/>
       <c r="X10" s="30"/>
       <c r="Y10" s="30"/>
-      <c r="Z10" s="30">
-        <f>Z8-F8</f>
-        <v>14.066666666666663</v>
-      </c>
+      <c r="Z10" s="30"/>
       <c r="AA10" s="30"/>
       <c r="AB10" s="30"/>
     </row>
@@ -16234,10 +16968,7 @@
       <c r="W13" s="30"/>
       <c r="X13" s="30"/>
       <c r="Y13" s="30"/>
-      <c r="Z13" s="30">
-        <f>Z11-F11</f>
-        <v>14.46153846153846</v>
-      </c>
+      <c r="Z13" s="30"/>
       <c r="AA13" s="30"/>
       <c r="AB13" s="30"/>
     </row>
@@ -16274,276 +17005,276 @@
       <c r="A15" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
     </row>
     <row r="18" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
     </row>
     <row r="19" spans="1:5" ht="38" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
     </row>
     <row r="20" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
     </row>
     <row r="21" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
     </row>
     <row r="22" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
     </row>
     <row r="24" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
     </row>
     <row r="25" spans="1:5" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
     </row>
     <row r="27" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
     </row>
     <row r="28" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
     </row>
     <row r="29" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
     </row>
     <row r="30" spans="1:5" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
     </row>
     <row r="31" spans="1:5" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
     </row>
     <row r="32" spans="1:5" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
     </row>
     <row r="33" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
     </row>
     <row r="34" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="58" t="s">
+      <c r="B34" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
     </row>
     <row r="35" spans="1:5" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
     </row>
     <row r="36" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
     </row>
     <row r="37" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
     </row>
     <row r="38" spans="1:5" ht="47" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="58" t="s">
+      <c r="B38" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
     </row>
     <row r="39" spans="1:5" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="58" t="s">
+      <c r="B39" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="55"/>
@@ -16551,6 +17282,1736 @@
   </sheetData>
   <mergeCells count="25">
     <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65546BA-EC2B-462B-A18B-C7EE879F4B4C}">
+  <dimension ref="A1:BA40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="49" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BB17" sqref="BB17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" customWidth="1"/>
+    <col min="35" max="35" width="7.90625" customWidth="1"/>
+    <col min="36" max="36" width="9.6328125" customWidth="1"/>
+    <col min="38" max="38" width="13.7265625" customWidth="1"/>
+    <col min="40" max="40" width="15.90625" customWidth="1"/>
+    <col min="42" max="42" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="30"/>
+      <c r="C1" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="124"/>
+      <c r="E1" s="123" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="124"/>
+      <c r="G1" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="124"/>
+      <c r="I1" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="124"/>
+      <c r="K1" s="123" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="124"/>
+      <c r="M1" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="124"/>
+      <c r="O1" s="122" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="123" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="124"/>
+      <c r="S1" s="122" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="122"/>
+      <c r="U1" s="123" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" s="124"/>
+      <c r="W1" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="122"/>
+      <c r="Y1" s="123" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" s="124"/>
+      <c r="AA1" s="128" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="123" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD1" s="124"/>
+      <c r="AE1" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF1" s="124"/>
+      <c r="AG1" s="127" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH1" s="122"/>
+      <c r="AI1" s="123" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ1" s="124"/>
+      <c r="AK1" s="122" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL1" s="122"/>
+      <c r="AM1" s="123" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN1" s="124"/>
+      <c r="AO1" s="122" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP1" s="122"/>
+      <c r="AQ1" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR1" s="124"/>
+      <c r="AS1" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT1" s="122"/>
+      <c r="AU1" s="123" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV1" s="124"/>
+      <c r="AW1" s="122" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX1" s="122"/>
+      <c r="AY1" s="123" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ1" s="124"/>
+      <c r="BA1" s="77" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="B2" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="74">
+        <v>1.5714285714285714</v>
+      </c>
+      <c r="D2" s="130" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="75">
+        <v>5421.4285714285716</v>
+      </c>
+      <c r="F2" s="132" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="74">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="H2" s="134" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="74">
+        <v>28.785714285714285</v>
+      </c>
+      <c r="J2" s="125">
+        <f>I2</f>
+        <v>28.785714285714285</v>
+      </c>
+      <c r="K2" s="74">
+        <v>5.6785714285714288</v>
+      </c>
+      <c r="L2" s="125">
+        <f>K2</f>
+        <v>5.6785714285714288</v>
+      </c>
+      <c r="M2" s="74">
+        <v>2.25</v>
+      </c>
+      <c r="N2" s="130"/>
+      <c r="O2" s="33">
+        <v>2.9642857142857144</v>
+      </c>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="74">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="R2" s="130"/>
+      <c r="S2" s="33">
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="T2" s="120"/>
+      <c r="U2" s="74">
+        <v>1.0357142857142858</v>
+      </c>
+      <c r="V2" s="130"/>
+      <c r="W2" s="33">
+        <v>2.5357142857142856</v>
+      </c>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="74">
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="Z2" s="130"/>
+      <c r="AA2" s="33">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="AB2" s="130"/>
+      <c r="AC2" s="74">
+        <v>1.2142857142857142</v>
+      </c>
+      <c r="AD2" s="134" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE2" s="74">
+        <v>5.6785714285714288</v>
+      </c>
+      <c r="AF2" s="151">
+        <f>AE2</f>
+        <v>5.6785714285714288</v>
+      </c>
+      <c r="AG2" s="33">
+        <v>1.3571428571428572</v>
+      </c>
+      <c r="AH2" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI2" s="74">
+        <v>2.0714285714285716</v>
+      </c>
+      <c r="AJ2" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK2" s="33">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="AL2" s="120" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM2" s="74">
+        <v>3051.7857142857142</v>
+      </c>
+      <c r="AN2" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO2" s="33">
+        <v>3.3928571428571428</v>
+      </c>
+      <c r="AP2" s="116">
+        <f>AO2</f>
+        <v>3.3928571428571428</v>
+      </c>
+      <c r="AQ2" s="74">
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="AR2" s="93" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS2" s="33">
+        <v>8.0357142857142865</v>
+      </c>
+      <c r="AT2" s="116">
+        <f>AS2</f>
+        <v>8.0357142857142865</v>
+      </c>
+      <c r="AU2" s="74">
+        <v>9.0357142857142865</v>
+      </c>
+      <c r="AV2" s="125">
+        <f>AU2</f>
+        <v>9.0357142857142865</v>
+      </c>
+      <c r="AW2" s="33">
+        <v>34.714285714285715</v>
+      </c>
+      <c r="AX2" s="120">
+        <f>AW2</f>
+        <v>34.714285714285715</v>
+      </c>
+      <c r="AY2" s="74">
+        <v>1.3571428571428572</v>
+      </c>
+      <c r="AZ2" s="118" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA2" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="72">
+        <v>2</v>
+      </c>
+      <c r="D3" s="131"/>
+      <c r="E3" s="72">
+        <v>7700</v>
+      </c>
+      <c r="F3" s="133"/>
+      <c r="G3" s="72">
+        <v>0</v>
+      </c>
+      <c r="H3" s="94"/>
+      <c r="I3" s="72">
+        <v>24</v>
+      </c>
+      <c r="J3" s="126"/>
+      <c r="K3" s="72">
+        <v>4</v>
+      </c>
+      <c r="L3" s="126"/>
+      <c r="M3" s="72">
+        <v>4</v>
+      </c>
+      <c r="N3" s="131"/>
+      <c r="O3" s="36">
+        <v>4</v>
+      </c>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="72">
+        <v>0</v>
+      </c>
+      <c r="R3" s="131"/>
+      <c r="S3" s="36">
+        <v>3</v>
+      </c>
+      <c r="T3" s="121"/>
+      <c r="U3" s="72">
+        <v>0</v>
+      </c>
+      <c r="V3" s="131"/>
+      <c r="W3" s="36">
+        <v>4</v>
+      </c>
+      <c r="X3" s="121"/>
+      <c r="Y3" s="72">
+        <v>4</v>
+      </c>
+      <c r="Z3" s="131"/>
+      <c r="AA3" s="36">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="131"/>
+      <c r="AC3" s="72">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="72">
+        <v>10</v>
+      </c>
+      <c r="AF3" s="152"/>
+      <c r="AG3" s="36">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="94"/>
+      <c r="AI3" s="72">
+        <v>2</v>
+      </c>
+      <c r="AJ3" s="94"/>
+      <c r="AK3" s="36">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="121"/>
+      <c r="AM3" s="72">
+        <v>3500</v>
+      </c>
+      <c r="AN3" s="119"/>
+      <c r="AO3" s="36">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="117"/>
+      <c r="AQ3" s="72">
+        <v>2</v>
+      </c>
+      <c r="AR3" s="94"/>
+      <c r="AS3" s="36">
+        <v>10</v>
+      </c>
+      <c r="AT3" s="117"/>
+      <c r="AU3" s="72">
+        <v>10</v>
+      </c>
+      <c r="AV3" s="126"/>
+      <c r="AW3" s="36">
+        <v>36</v>
+      </c>
+      <c r="AX3" s="121"/>
+      <c r="AY3" s="72">
+        <v>2</v>
+      </c>
+      <c r="AZ3" s="119"/>
+      <c r="BA3" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="30"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="61"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="61"/>
+      <c r="AD4" s="94"/>
+      <c r="AE4" s="61"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="61"/>
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="30"/>
+      <c r="AL4" s="30"/>
+      <c r="AM4" s="61"/>
+      <c r="AN4" s="62"/>
+      <c r="AO4" s="30"/>
+      <c r="AP4" s="78"/>
+      <c r="AQ4" s="61"/>
+      <c r="AR4" s="94"/>
+      <c r="AS4" s="30"/>
+      <c r="AT4" s="78"/>
+      <c r="AU4" s="61"/>
+      <c r="AV4" s="63"/>
+      <c r="AW4" s="30"/>
+      <c r="AX4" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AY4" s="61"/>
+      <c r="AZ4" s="63">
+        <f>AX2-J2</f>
+        <v>5.9285714285714306</v>
+      </c>
+      <c r="BA4" s="80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="B5" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="70">
+        <v>1.7386363636363635</v>
+      </c>
+      <c r="D5" s="135" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="70">
+        <v>22000</v>
+      </c>
+      <c r="F5" s="153" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="70">
+        <v>0.26136363636363635</v>
+      </c>
+      <c r="H5" s="94"/>
+      <c r="I5" s="70">
+        <v>30.227272727272727</v>
+      </c>
+      <c r="J5" s="112">
+        <f>I5</f>
+        <v>30.227272727272727</v>
+      </c>
+      <c r="K5" s="70">
+        <v>5.5</v>
+      </c>
+      <c r="L5" s="112">
+        <f>K5</f>
+        <v>5.5</v>
+      </c>
+      <c r="M5" s="70">
+        <v>1.5454545454545454</v>
+      </c>
+      <c r="N5" s="135"/>
+      <c r="O5" s="39">
+        <v>2.4545454545454546</v>
+      </c>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="70">
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="R5" s="135"/>
+      <c r="S5" s="39">
+        <v>2.3636363636363638</v>
+      </c>
+      <c r="T5" s="104"/>
+      <c r="U5" s="70">
+        <v>1.7727272727272727</v>
+      </c>
+      <c r="V5" s="135"/>
+      <c r="W5" s="39">
+        <v>2.9772727272727271</v>
+      </c>
+      <c r="X5" s="104"/>
+      <c r="Y5" s="70">
+        <v>1.9204545454545454</v>
+      </c>
+      <c r="Z5" s="135"/>
+      <c r="AA5" s="39">
+        <v>0.70454545454545459</v>
+      </c>
+      <c r="AB5" s="135"/>
+      <c r="AC5" s="70">
+        <v>1.4545454545454546</v>
+      </c>
+      <c r="AD5" s="94"/>
+      <c r="AE5" s="70">
+        <v>5.9545454545454541</v>
+      </c>
+      <c r="AF5" s="137">
+        <f>AE5</f>
+        <v>5.9545454545454541</v>
+      </c>
+      <c r="AG5" s="39">
+        <v>1.8295454545454546</v>
+      </c>
+      <c r="AH5" s="94"/>
+      <c r="AI5" s="70">
+        <v>1.8977272727272727</v>
+      </c>
+      <c r="AJ5" s="94"/>
+      <c r="AK5" s="39">
+        <v>0.82954545454545459</v>
+      </c>
+      <c r="AL5" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM5" s="70">
+        <v>4078.409090909091</v>
+      </c>
+      <c r="AN5" s="102" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO5" s="39">
+        <v>4.3863636363636367</v>
+      </c>
+      <c r="AP5" s="114">
+        <f>AO5</f>
+        <v>4.3863636363636367</v>
+      </c>
+      <c r="AQ5" s="70">
+        <v>1.7159090909090908</v>
+      </c>
+      <c r="AR5" s="94"/>
+      <c r="AS5" s="39">
+        <v>7.8295454545454541</v>
+      </c>
+      <c r="AT5" s="114">
+        <f>AS5</f>
+        <v>7.8295454545454541</v>
+      </c>
+      <c r="AU5" s="70">
+        <v>8.5113636363636367</v>
+      </c>
+      <c r="AV5" s="112">
+        <f>AU5</f>
+        <v>8.5113636363636367</v>
+      </c>
+      <c r="AW5" s="39">
+        <v>38.69318181818182</v>
+      </c>
+      <c r="AX5" s="104">
+        <f>AW5</f>
+        <v>38.69318181818182</v>
+      </c>
+      <c r="AY5" s="70">
+        <v>0.88636363636363635</v>
+      </c>
+      <c r="AZ5" s="102" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA5" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="68">
+        <v>2</v>
+      </c>
+      <c r="D6" s="136"/>
+      <c r="E6" s="68">
+        <v>22000</v>
+      </c>
+      <c r="F6" s="154"/>
+      <c r="G6" s="68">
+        <v>0</v>
+      </c>
+      <c r="H6" s="94"/>
+      <c r="I6" s="68">
+        <v>36</v>
+      </c>
+      <c r="J6" s="113"/>
+      <c r="K6" s="68">
+        <v>3</v>
+      </c>
+      <c r="L6" s="113"/>
+      <c r="M6" s="68">
+        <v>0</v>
+      </c>
+      <c r="N6" s="136"/>
+      <c r="O6" s="41">
+        <v>3</v>
+      </c>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="68">
+        <v>0</v>
+      </c>
+      <c r="R6" s="136"/>
+      <c r="S6" s="41">
+        <v>3</v>
+      </c>
+      <c r="T6" s="105"/>
+      <c r="U6" s="68">
+        <v>0</v>
+      </c>
+      <c r="V6" s="136"/>
+      <c r="W6" s="41">
+        <v>4</v>
+      </c>
+      <c r="X6" s="105"/>
+      <c r="Y6" s="68">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="136"/>
+      <c r="AA6" s="41">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="136"/>
+      <c r="AC6" s="68">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="94"/>
+      <c r="AE6" s="68">
+        <v>10</v>
+      </c>
+      <c r="AF6" s="138"/>
+      <c r="AG6" s="41">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="94"/>
+      <c r="AI6" s="68">
+        <v>2</v>
+      </c>
+      <c r="AJ6" s="94"/>
+      <c r="AK6" s="41">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="105"/>
+      <c r="AM6" s="68">
+        <v>3500</v>
+      </c>
+      <c r="AN6" s="103"/>
+      <c r="AO6" s="41">
+        <v>6</v>
+      </c>
+      <c r="AP6" s="115"/>
+      <c r="AQ6" s="68">
+        <v>2</v>
+      </c>
+      <c r="AR6" s="94"/>
+      <c r="AS6" s="41">
+        <v>10</v>
+      </c>
+      <c r="AT6" s="115"/>
+      <c r="AU6" s="68">
+        <v>10</v>
+      </c>
+      <c r="AV6" s="113"/>
+      <c r="AW6" s="41">
+        <v>36</v>
+      </c>
+      <c r="AX6" s="105"/>
+      <c r="AY6" s="68">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="103"/>
+      <c r="BA6" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="30"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="61"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="62"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="61"/>
+      <c r="Z7" s="62"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="61"/>
+      <c r="AD7" s="94"/>
+      <c r="AE7" s="61"/>
+      <c r="AF7" s="60"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="94"/>
+      <c r="AI7" s="61"/>
+      <c r="AJ7" s="94"/>
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="30"/>
+      <c r="AM7" s="61"/>
+      <c r="AN7" s="62"/>
+      <c r="AO7" s="30"/>
+      <c r="AP7" s="78"/>
+      <c r="AQ7" s="61"/>
+      <c r="AR7" s="94"/>
+      <c r="AS7" s="30"/>
+      <c r="AT7" s="78"/>
+      <c r="AU7" s="61"/>
+      <c r="AV7" s="63"/>
+      <c r="AW7" s="30"/>
+      <c r="AX7" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY7" s="61"/>
+      <c r="AZ7" s="79">
+        <f>AX5-J5</f>
+        <v>8.4659090909090935</v>
+      </c>
+      <c r="BA7" s="30"/>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="B8" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="66">
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="D8" s="139" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="66">
+        <v>16500</v>
+      </c>
+      <c r="F8" s="141" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="66">
+        <v>0.3</v>
+      </c>
+      <c r="H8" s="94"/>
+      <c r="I8" s="66">
+        <v>28.233333333333334</v>
+      </c>
+      <c r="J8" s="108">
+        <f>I8</f>
+        <v>28.233333333333334</v>
+      </c>
+      <c r="K8" s="66">
+        <v>5.9333333333333336</v>
+      </c>
+      <c r="L8" s="108">
+        <f>K8</f>
+        <v>5.9333333333333336</v>
+      </c>
+      <c r="M8" s="66">
+        <v>1.9666666666666666</v>
+      </c>
+      <c r="N8" s="139"/>
+      <c r="O8" s="43">
+        <v>2.6333333333333333</v>
+      </c>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="66">
+        <v>0.7</v>
+      </c>
+      <c r="R8" s="139"/>
+      <c r="S8" s="43">
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="T8" s="106"/>
+      <c r="U8" s="66">
+        <v>1.7333333333333334</v>
+      </c>
+      <c r="V8" s="139"/>
+      <c r="W8" s="43">
+        <v>2.4666666666666668</v>
+      </c>
+      <c r="X8" s="106"/>
+      <c r="Y8" s="66">
+        <v>2.0666666666666669</v>
+      </c>
+      <c r="Z8" s="139"/>
+      <c r="AA8" s="43">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="139"/>
+      <c r="AC8" s="66">
+        <v>1.4333333333333333</v>
+      </c>
+      <c r="AD8" s="94"/>
+      <c r="AE8" s="66">
+        <v>5.8</v>
+      </c>
+      <c r="AF8" s="143">
+        <f>AE8</f>
+        <v>5.8</v>
+      </c>
+      <c r="AG8" s="43">
+        <v>1.4666666666666666</v>
+      </c>
+      <c r="AH8" s="94"/>
+      <c r="AI8" s="66">
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="AJ8" s="94"/>
+      <c r="AK8" s="43">
+        <v>1.0333333333333334</v>
+      </c>
+      <c r="AL8" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM8" s="66">
+        <v>3238.3333333333335</v>
+      </c>
+      <c r="AN8" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO8" s="43">
+        <v>4.9666666666666668</v>
+      </c>
+      <c r="AP8" s="110">
+        <f>AO8</f>
+        <v>4.9666666666666668</v>
+      </c>
+      <c r="AQ8" s="66">
+        <v>1.9</v>
+      </c>
+      <c r="AR8" s="94"/>
+      <c r="AS8" s="43">
+        <v>7.7666666666666666</v>
+      </c>
+      <c r="AT8" s="110">
+        <f>AS8</f>
+        <v>7.7666666666666666</v>
+      </c>
+      <c r="AU8" s="66">
+        <v>8.0333333333333332</v>
+      </c>
+      <c r="AV8" s="108">
+        <f>AU8</f>
+        <v>8.0333333333333332</v>
+      </c>
+      <c r="AW8" s="43">
+        <v>42.3</v>
+      </c>
+      <c r="AX8" s="106">
+        <f>AW8</f>
+        <v>42.3</v>
+      </c>
+      <c r="AY8" s="66">
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="AZ8" s="96" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA8" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="64">
+        <v>2</v>
+      </c>
+      <c r="D9" s="140"/>
+      <c r="E9" s="64">
+        <v>16500</v>
+      </c>
+      <c r="F9" s="142"/>
+      <c r="G9" s="64">
+        <v>0</v>
+      </c>
+      <c r="H9" s="94"/>
+      <c r="I9" s="64">
+        <v>24</v>
+      </c>
+      <c r="J9" s="109"/>
+      <c r="K9" s="64">
+        <v>3</v>
+      </c>
+      <c r="L9" s="109"/>
+      <c r="M9" s="64">
+        <v>1</v>
+      </c>
+      <c r="N9" s="140"/>
+      <c r="O9" s="45">
+        <v>4</v>
+      </c>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="64">
+        <v>0</v>
+      </c>
+      <c r="R9" s="140"/>
+      <c r="S9" s="45">
+        <v>3</v>
+      </c>
+      <c r="T9" s="107"/>
+      <c r="U9" s="64">
+        <v>0</v>
+      </c>
+      <c r="V9" s="140"/>
+      <c r="W9" s="45">
+        <v>4</v>
+      </c>
+      <c r="X9" s="107"/>
+      <c r="Y9" s="64">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="140"/>
+      <c r="AA9" s="45">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="140"/>
+      <c r="AC9" s="64">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="94"/>
+      <c r="AE9" s="64">
+        <v>10</v>
+      </c>
+      <c r="AF9" s="144"/>
+      <c r="AG9" s="45">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="94"/>
+      <c r="AI9" s="64">
+        <v>2</v>
+      </c>
+      <c r="AJ9" s="94"/>
+      <c r="AK9" s="45">
+        <v>2</v>
+      </c>
+      <c r="AL9" s="99"/>
+      <c r="AM9" s="64">
+        <v>3500</v>
+      </c>
+      <c r="AN9" s="97"/>
+      <c r="AO9" s="45">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="111"/>
+      <c r="AQ9" s="64">
+        <v>2</v>
+      </c>
+      <c r="AR9" s="94"/>
+      <c r="AS9" s="45">
+        <v>10</v>
+      </c>
+      <c r="AT9" s="111"/>
+      <c r="AU9" s="64">
+        <v>10</v>
+      </c>
+      <c r="AV9" s="109"/>
+      <c r="AW9" s="45">
+        <v>48</v>
+      </c>
+      <c r="AX9" s="107"/>
+      <c r="AY9" s="64">
+        <v>1</v>
+      </c>
+      <c r="AZ9" s="97"/>
+      <c r="BA9" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="30"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" s="61"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="61"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="61"/>
+      <c r="AD10" s="94"/>
+      <c r="AE10" s="61"/>
+      <c r="AF10" s="60"/>
+      <c r="AG10" s="30"/>
+      <c r="AH10" s="94"/>
+      <c r="AI10" s="61"/>
+      <c r="AJ10" s="94"/>
+      <c r="AK10" s="30"/>
+      <c r="AL10" s="30"/>
+      <c r="AM10" s="61"/>
+      <c r="AN10" s="62"/>
+      <c r="AO10" s="30"/>
+      <c r="AP10" s="78"/>
+      <c r="AQ10" s="61"/>
+      <c r="AR10" s="94"/>
+      <c r="AS10" s="30"/>
+      <c r="AT10" s="78"/>
+      <c r="AU10" s="61"/>
+      <c r="AV10" s="63"/>
+      <c r="AW10" s="30"/>
+      <c r="AX10" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY10" s="61"/>
+      <c r="AZ10" s="79">
+        <f>AX8-J8</f>
+        <v>14.066666666666663</v>
+      </c>
+      <c r="BA10" s="30"/>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="B11" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="58">
+        <v>1.4615384615384615</v>
+      </c>
+      <c r="D11" s="145" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="58">
+        <v>21576.923076923078</v>
+      </c>
+      <c r="F11" s="147" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="58">
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="H11" s="94"/>
+      <c r="I11" s="58">
+        <v>26.307692307692307</v>
+      </c>
+      <c r="J11" s="91">
+        <f>I11</f>
+        <v>26.307692307692307</v>
+      </c>
+      <c r="K11" s="58">
+        <v>4.6923076923076925</v>
+      </c>
+      <c r="L11" s="91">
+        <f>K11</f>
+        <v>4.6923076923076925</v>
+      </c>
+      <c r="M11" s="58">
+        <v>2</v>
+      </c>
+      <c r="N11" s="145"/>
+      <c r="O11" s="47">
+        <v>1.1538461538461537</v>
+      </c>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="58">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="R11" s="145"/>
+      <c r="S11" s="47">
+        <v>2.0769230769230771</v>
+      </c>
+      <c r="T11" s="89"/>
+      <c r="U11" s="58">
+        <v>1.7692307692307692</v>
+      </c>
+      <c r="V11" s="145"/>
+      <c r="W11" s="47">
+        <v>3.7692307692307692</v>
+      </c>
+      <c r="X11" s="89"/>
+      <c r="Y11" s="58">
+        <v>2.4615384615384617</v>
+      </c>
+      <c r="Z11" s="145"/>
+      <c r="AA11" s="47">
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="AB11" s="145"/>
+      <c r="AC11" s="58">
+        <v>1.7692307692307692</v>
+      </c>
+      <c r="AD11" s="94"/>
+      <c r="AE11" s="58">
+        <v>6</v>
+      </c>
+      <c r="AF11" s="149">
+        <f>AE11</f>
+        <v>6</v>
+      </c>
+      <c r="AG11" s="47">
+        <v>1.3846153846153846</v>
+      </c>
+      <c r="AH11" s="94"/>
+      <c r="AI11" s="58">
+        <v>2.0769230769230771</v>
+      </c>
+      <c r="AJ11" s="94"/>
+      <c r="AK11" s="47">
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="AL11" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM11" s="58">
+        <v>9688.461538461539</v>
+      </c>
+      <c r="AN11" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO11" s="47">
+        <v>6.9230769230769234</v>
+      </c>
+      <c r="AP11" s="100">
+        <f>AO11</f>
+        <v>6.9230769230769234</v>
+      </c>
+      <c r="AQ11" s="58">
+        <v>1.5384615384615385</v>
+      </c>
+      <c r="AR11" s="94"/>
+      <c r="AS11" s="47">
+        <v>7.615384615384615</v>
+      </c>
+      <c r="AT11" s="100">
+        <f>AS11</f>
+        <v>7.615384615384615</v>
+      </c>
+      <c r="AU11" s="58">
+        <v>8.4615384615384617</v>
+      </c>
+      <c r="AV11" s="91">
+        <f>AU11</f>
+        <v>8.4615384615384617</v>
+      </c>
+      <c r="AW11" s="47">
+        <v>40.769230769230766</v>
+      </c>
+      <c r="AX11" s="89">
+        <f>AW11</f>
+        <v>40.769230769230766</v>
+      </c>
+      <c r="AY11" s="58">
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA11" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="56">
+        <v>1</v>
+      </c>
+      <c r="D12" s="146"/>
+      <c r="E12" s="56">
+        <v>22000</v>
+      </c>
+      <c r="F12" s="148"/>
+      <c r="G12" s="56">
+        <v>0</v>
+      </c>
+      <c r="H12" s="95"/>
+      <c r="I12" s="56">
+        <v>12</v>
+      </c>
+      <c r="J12" s="92"/>
+      <c r="K12" s="56">
+        <v>2</v>
+      </c>
+      <c r="L12" s="92"/>
+      <c r="M12" s="56">
+        <v>3</v>
+      </c>
+      <c r="N12" s="146"/>
+      <c r="O12" s="48">
+        <v>2</v>
+      </c>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="56">
+        <v>0</v>
+      </c>
+      <c r="R12" s="146"/>
+      <c r="S12" s="48">
+        <v>3</v>
+      </c>
+      <c r="T12" s="90"/>
+      <c r="U12" s="56">
+        <v>0</v>
+      </c>
+      <c r="V12" s="146"/>
+      <c r="W12" s="48">
+        <v>4</v>
+      </c>
+      <c r="X12" s="90"/>
+      <c r="Y12" s="56">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="146"/>
+      <c r="AA12" s="48">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="146"/>
+      <c r="AC12" s="56">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="95"/>
+      <c r="AE12" s="56">
+        <v>10</v>
+      </c>
+      <c r="AF12" s="150"/>
+      <c r="AG12" s="48">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="95"/>
+      <c r="AI12" s="56">
+        <v>2</v>
+      </c>
+      <c r="AJ12" s="95"/>
+      <c r="AK12" s="48">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="90"/>
+      <c r="AM12" s="56">
+        <v>9450</v>
+      </c>
+      <c r="AN12" s="88"/>
+      <c r="AO12" s="48">
+        <v>10</v>
+      </c>
+      <c r="AP12" s="101"/>
+      <c r="AQ12" s="56">
+        <v>2</v>
+      </c>
+      <c r="AR12" s="95"/>
+      <c r="AS12" s="48">
+        <v>10</v>
+      </c>
+      <c r="AT12" s="101"/>
+      <c r="AU12" s="56">
+        <v>10</v>
+      </c>
+      <c r="AV12" s="92"/>
+      <c r="AW12" s="48">
+        <v>36</v>
+      </c>
+      <c r="AX12" s="90"/>
+      <c r="AY12" s="56">
+        <v>1</v>
+      </c>
+      <c r="AZ12" s="88"/>
+      <c r="BA12" s="48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="30"/>
+      <c r="AH13" s="30"/>
+      <c r="AI13" s="30"/>
+      <c r="AJ13" s="30"/>
+      <c r="AK13" s="30"/>
+      <c r="AL13" s="30"/>
+      <c r="AM13" s="30"/>
+      <c r="AN13" s="30"/>
+      <c r="AO13" s="30"/>
+      <c r="AP13" s="30"/>
+      <c r="AQ13" s="30"/>
+      <c r="AR13" s="30"/>
+      <c r="AS13" s="30"/>
+      <c r="AT13" s="30"/>
+      <c r="AU13" s="30"/>
+      <c r="AV13" s="30"/>
+      <c r="AW13" s="30"/>
+      <c r="AX13" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY13" s="30"/>
+      <c r="AZ13" s="78">
+        <f>AX11-J11</f>
+        <v>14.46153846153846</v>
+      </c>
+      <c r="BA13" s="30"/>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="A15" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="A16" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+    </row>
+    <row r="18" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+    </row>
+    <row r="19" spans="1:5" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+    </row>
+    <row r="20" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+    </row>
+    <row r="21" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+    </row>
+    <row r="22" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+    </row>
+    <row r="24" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+    </row>
+    <row r="25" spans="1:5" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+    </row>
+    <row r="27" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+    </row>
+    <row r="28" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+    </row>
+    <row r="29" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+    </row>
+    <row r="30" spans="1:5" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+    </row>
+    <row r="31" spans="1:5" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+    </row>
+    <row r="32" spans="1:5" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+    </row>
+    <row r="33" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+    </row>
+    <row r="34" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+    </row>
+    <row r="35" spans="1:5" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+    </row>
+    <row r="36" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+    </row>
+    <row r="37" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+    </row>
+    <row r="38" spans="1:5" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="82"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+    </row>
+    <row r="39" spans="1:5" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="135">
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AF11:AF12"/>
+    <mergeCell ref="AD2:AD12"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B35:E35"/>
@@ -16565,18 +19026,110 @@
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H2:H12"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AZ11:AZ12"/>
+    <mergeCell ref="AX11:AX12"/>
+    <mergeCell ref="AV11:AV12"/>
+    <mergeCell ref="AH2:AH12"/>
+    <mergeCell ref="AJ2:AJ12"/>
+    <mergeCell ref="AR2:AR12"/>
+    <mergeCell ref="AN8:AN9"/>
+    <mergeCell ref="AL8:AL9"/>
+    <mergeCell ref="AT11:AT12"/>
+    <mergeCell ref="AP11:AP12"/>
+    <mergeCell ref="AN11:AN12"/>
+    <mergeCell ref="AL11:AL12"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AZ8:AZ9"/>
+    <mergeCell ref="AX8:AX9"/>
+    <mergeCell ref="AV8:AV9"/>
+    <mergeCell ref="AT8:AT9"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="AX5:AX6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AP5:AP6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/cluster.xlsx
+++ b/cluster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gio\Documents\INSPER\IC_EC_eletonicos\AnaliseSurvey\IC_AnaliseSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41F92E9-E0FA-4FB2-B973-1DECED219C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A132306-C676-4E3C-9923-4C99BA3ED76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados clusterizados" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="analise" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dados clusterizados'!$A$1:$AA$166</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dados clusterizados'!$A$1:$AA$168</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -334,7 +334,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="89">
   <si>
     <t>GENERO</t>
   </si>
@@ -575,6 +575,33 @@
   <si>
     <t>meses que espera a mais do que realmente é</t>
   </si>
+  <si>
+    <t>concordo totalmente</t>
+  </si>
+  <si>
+    <t>discordo totalente</t>
+  </si>
+  <si>
+    <t>discordo parcealmente</t>
+  </si>
+  <si>
+    <t>cocordo parcialmente</t>
+  </si>
+  <si>
+    <t>concordo parcialmente</t>
+  </si>
+  <si>
+    <t>nem cocordo nem discordo]</t>
+  </si>
+  <si>
+    <t>discordo totamente</t>
+  </si>
+  <si>
+    <t>concorddo parcialmente</t>
+  </si>
+  <si>
+    <t>discordo totalmente</t>
+  </si>
 </sst>
 </file>
 
@@ -583,7 +610,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -604,6 +631,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="15">
@@ -979,7 +1012,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1187,6 +1220,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1328,11 +1364,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1349,11 +1394,35 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1379,18 +1448,6 @@
     <xf numFmtId="2" fontId="0" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1401,6 +1458,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1913,8 +1976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE168"/>
   <sheetViews>
-    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5729,7 +5792,7 @@
       <c r="B46" s="50">
         <v>2</v>
       </c>
-      <c r="C46" s="50">
+      <c r="C46" s="5">
         <v>22000</v>
       </c>
       <c r="D46" s="50">
@@ -9630,7 +9693,7 @@
       <c r="B93" s="50">
         <v>2</v>
       </c>
-      <c r="C93" s="50">
+      <c r="C93" s="5">
         <v>22000</v>
       </c>
       <c r="D93" s="50">
@@ -9713,7 +9776,7 @@
       <c r="B94" s="50">
         <v>2</v>
       </c>
-      <c r="C94" s="50">
+      <c r="C94" s="5">
         <v>22000</v>
       </c>
       <c r="D94" s="50">
@@ -11290,7 +11353,7 @@
       <c r="B113" s="50">
         <v>2</v>
       </c>
-      <c r="C113" s="50">
+      <c r="C113" s="5">
         <v>22000</v>
       </c>
       <c r="D113" s="50">
@@ -16088,12 +16151,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA166" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:AA168" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA166">
       <sortCondition ref="AA1:AA166"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16102,7 +16166,7 @@
   <dimension ref="A1:AB40"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17005,276 +17069,276 @@
       <c r="A15" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
     </row>
     <row r="18" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
     </row>
     <row r="19" spans="1:5" ht="38" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
     </row>
     <row r="20" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
     </row>
     <row r="21" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
     </row>
     <row r="22" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
     </row>
     <row r="24" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
     </row>
     <row r="25" spans="1:5" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="81" t="s">
+      <c r="B25" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="81" t="s">
+      <c r="B26" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
     </row>
     <row r="27" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
     </row>
     <row r="28" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
     </row>
     <row r="29" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="81" t="s">
+      <c r="B29" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
     </row>
     <row r="30" spans="1:5" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="81" t="s">
+      <c r="B30" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
     </row>
     <row r="31" spans="1:5" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="81" t="s">
+      <c r="B31" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
     </row>
     <row r="32" spans="1:5" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="81" t="s">
+      <c r="B32" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
     </row>
     <row r="33" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="81" t="s">
+      <c r="B33" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="83"/>
     </row>
     <row r="34" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
     </row>
     <row r="35" spans="1:5" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="81" t="s">
+      <c r="B35" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
     </row>
     <row r="36" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="81" t="s">
+      <c r="B36" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="83"/>
     </row>
     <row r="37" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="81" t="s">
+      <c r="B37" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
     </row>
     <row r="38" spans="1:5" ht="47" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="81" t="s">
+      <c r="B38" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
     </row>
     <row r="39" spans="1:5" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="81" t="s">
+      <c r="B39" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="83"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="55"/>
@@ -17317,14 +17381,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65546BA-EC2B-462B-A18B-C7EE879F4B4C}">
   <dimension ref="A1:BA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="49" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BB17" sqref="BB17"/>
+    <sheetView zoomScale="49" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7265625" customWidth="1"/>
+    <col min="14" max="14" width="13.26953125" customWidth="1"/>
+    <col min="16" max="16" width="14.81640625" customWidth="1"/>
+    <col min="18" max="18" width="10.54296875" customWidth="1"/>
+    <col min="20" max="20" width="11.1796875" customWidth="1"/>
+    <col min="22" max="22" width="10.81640625" customWidth="1"/>
+    <col min="24" max="24" width="10.90625" customWidth="1"/>
+    <col min="26" max="26" width="11.453125" customWidth="1"/>
+    <col min="28" max="28" width="11.26953125" customWidth="1"/>
     <col min="35" max="35" width="7.90625" customWidth="1"/>
     <col min="36" max="36" width="9.6328125" customWidth="1"/>
     <col min="38" max="38" width="13.7265625" customWidth="1"/>
@@ -17333,108 +17405,108 @@
     <col min="46" max="46" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:53" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="30"/>
-      <c r="C1" s="123" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="124"/>
-      <c r="E1" s="123" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="124"/>
-      <c r="G1" s="123" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="124"/>
-      <c r="I1" s="123" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="124"/>
-      <c r="K1" s="123" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="124"/>
-      <c r="M1" s="123" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="124"/>
-      <c r="O1" s="122" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="123" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" s="124"/>
-      <c r="S1" s="122" t="s">
-        <v>8</v>
-      </c>
-      <c r="T1" s="122"/>
-      <c r="U1" s="123" t="s">
-        <v>9</v>
-      </c>
-      <c r="V1" s="124"/>
-      <c r="W1" s="122" t="s">
-        <v>10</v>
-      </c>
-      <c r="X1" s="122"/>
-      <c r="Y1" s="123" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z1" s="124"/>
-      <c r="AA1" s="128" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="123" t="s">
+      <c r="C1" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="125"/>
+      <c r="E1" s="124" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="125"/>
+      <c r="G1" s="124" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="125"/>
+      <c r="I1" s="124" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="125"/>
+      <c r="K1" s="124" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="125"/>
+      <c r="M1" s="129" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="130"/>
+      <c r="O1" s="131" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="129" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="130"/>
+      <c r="S1" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="131"/>
+      <c r="U1" s="129" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" s="130"/>
+      <c r="W1" s="131" t="s">
+        <v>37</v>
+      </c>
+      <c r="X1" s="131"/>
+      <c r="Y1" s="129" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" s="130"/>
+      <c r="AA1" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB1" s="133"/>
+      <c r="AC1" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="124"/>
-      <c r="AE1" s="123" t="s">
+      <c r="AD1" s="125"/>
+      <c r="AE1" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="124"/>
-      <c r="AG1" s="127" t="s">
+      <c r="AF1" s="125"/>
+      <c r="AG1" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="AH1" s="122"/>
-      <c r="AI1" s="123" t="s">
+      <c r="AH1" s="123"/>
+      <c r="AI1" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="AJ1" s="124"/>
-      <c r="AK1" s="122" t="s">
+      <c r="AJ1" s="125"/>
+      <c r="AK1" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="AL1" s="122"/>
-      <c r="AM1" s="123" t="s">
+      <c r="AL1" s="123"/>
+      <c r="AM1" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="AN1" s="124"/>
-      <c r="AO1" s="122" t="s">
+      <c r="AN1" s="125"/>
+      <c r="AO1" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="AP1" s="122"/>
-      <c r="AQ1" s="123" t="s">
+      <c r="AP1" s="123"/>
+      <c r="AQ1" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="AR1" s="124"/>
-      <c r="AS1" s="122" t="s">
+      <c r="AR1" s="125"/>
+      <c r="AS1" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="AT1" s="122"/>
-      <c r="AU1" s="123" t="s">
+      <c r="AT1" s="123"/>
+      <c r="AU1" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="AV1" s="124"/>
-      <c r="AW1" s="122" t="s">
+      <c r="AV1" s="125"/>
+      <c r="AW1" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="AX1" s="122"/>
-      <c r="AY1" s="123" t="s">
+      <c r="AX1" s="123"/>
+      <c r="AY1" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="AZ1" s="124"/>
+      <c r="AZ1" s="125"/>
       <c r="BA1" s="77" t="s">
         <v>25</v>
       </c>
@@ -17446,142 +17518,161 @@
       <c r="C2" s="74">
         <v>1.5714285714285714</v>
       </c>
-      <c r="D2" s="130" t="s">
+      <c r="D2" s="134" t="s">
         <v>57</v>
       </c>
       <c r="E2" s="75">
         <v>5421.4285714285716</v>
       </c>
-      <c r="F2" s="132" t="s">
+      <c r="F2" s="136" t="s">
         <v>60</v>
       </c>
       <c r="G2" s="74">
         <v>0.21428571428571427</v>
       </c>
-      <c r="H2" s="134" t="s">
+      <c r="H2" s="138" t="s">
         <v>59</v>
       </c>
       <c r="I2" s="74">
         <v>28.785714285714285</v>
       </c>
-      <c r="J2" s="125">
+      <c r="J2" s="126">
         <f>I2</f>
         <v>28.785714285714285</v>
       </c>
       <c r="K2" s="74">
         <v>5.6785714285714288</v>
       </c>
-      <c r="L2" s="125">
+      <c r="L2" s="126">
         <f>K2</f>
         <v>5.6785714285714288</v>
       </c>
       <c r="M2" s="74">
         <v>2.25</v>
       </c>
-      <c r="N2" s="130"/>
+      <c r="N2" s="119" t="s">
+        <v>80</v>
+      </c>
       <c r="O2" s="33">
         <v>2.9642857142857144</v>
       </c>
-      <c r="P2" s="120"/>
+      <c r="P2" s="139" t="str">
+        <f>N2</f>
+        <v>concordo totalmente</v>
+      </c>
       <c r="Q2" s="74">
         <v>0.8928571428571429</v>
       </c>
-      <c r="R2" s="130"/>
+      <c r="R2" s="94" t="s">
+        <v>86</v>
+      </c>
       <c r="S2" s="33">
         <v>2.2857142857142856</v>
       </c>
-      <c r="T2" s="120"/>
+      <c r="T2" s="94" t="s">
+        <v>87</v>
+      </c>
       <c r="U2" s="74">
         <v>1.0357142857142858</v>
       </c>
-      <c r="V2" s="130"/>
+      <c r="V2" s="94" t="s">
+        <v>88</v>
+      </c>
       <c r="W2" s="33">
         <v>2.5357142857142856</v>
       </c>
-      <c r="X2" s="120"/>
+      <c r="X2" s="94" t="s">
+        <v>80</v>
+      </c>
       <c r="Y2" s="74">
         <v>2.5714285714285716</v>
       </c>
-      <c r="Z2" s="130"/>
+      <c r="Z2" s="119" t="str">
+        <f>P2</f>
+        <v>concordo totalmente</v>
+      </c>
       <c r="AA2" s="33">
         <v>0.5357142857142857</v>
       </c>
-      <c r="AB2" s="130"/>
+      <c r="AB2" s="94" t="str">
+        <f>V2</f>
+        <v>discordo totalmente</v>
+      </c>
       <c r="AC2" s="74">
         <v>1.2142857142857142</v>
       </c>
-      <c r="AD2" s="134" t="s">
+      <c r="AD2" s="138" t="s">
         <v>58</v>
       </c>
       <c r="AE2" s="74">
         <v>5.6785714285714288</v>
       </c>
-      <c r="AF2" s="151">
+      <c r="AF2" s="159">
         <f>AE2</f>
         <v>5.6785714285714288</v>
       </c>
       <c r="AG2" s="33">
         <v>1.3571428571428572</v>
       </c>
-      <c r="AH2" s="93" t="s">
+      <c r="AH2" s="94" t="s">
         <v>61</v>
       </c>
       <c r="AI2" s="74">
         <v>2.0714285714285716</v>
       </c>
-      <c r="AJ2" s="93" t="s">
+      <c r="AJ2" s="94" t="s">
         <v>62</v>
       </c>
       <c r="AK2" s="33">
         <v>0.8571428571428571</v>
       </c>
-      <c r="AL2" s="120" t="s">
+      <c r="AL2" s="121" t="s">
         <v>64</v>
       </c>
       <c r="AM2" s="74">
         <v>3051.7857142857142</v>
       </c>
-      <c r="AN2" s="118" t="s">
+      <c r="AN2" s="119" t="s">
         <v>65</v>
       </c>
       <c r="AO2" s="33">
         <v>3.3928571428571428</v>
       </c>
-      <c r="AP2" s="116">
+      <c r="AP2" s="117">
         <f>AO2</f>
         <v>3.3928571428571428</v>
       </c>
       <c r="AQ2" s="74">
         <v>1.4285714285714286</v>
       </c>
-      <c r="AR2" s="93" t="s">
+      <c r="AR2" s="94" t="s">
         <v>67</v>
       </c>
       <c r="AS2" s="33">
         <v>8.0357142857142865</v>
       </c>
-      <c r="AT2" s="116">
+      <c r="AT2" s="117">
         <f>AS2</f>
         <v>8.0357142857142865</v>
       </c>
       <c r="AU2" s="74">
         <v>9.0357142857142865</v>
       </c>
-      <c r="AV2" s="125">
+      <c r="AV2" s="126">
         <f>AU2</f>
         <v>9.0357142857142865</v>
       </c>
       <c r="AW2" s="33">
         <v>34.714285714285715</v>
       </c>
-      <c r="AX2" s="120">
+      <c r="AX2" s="121">
         <f>AW2</f>
         <v>34.714285714285715</v>
       </c>
       <c r="AY2" s="74">
         <v>1.3571428571428572</v>
       </c>
-      <c r="AZ2" s="118" t="s">
+      <c r="AZ2" s="119" t="s">
         <v>72</v>
       </c>
       <c r="BA2" s="34">
@@ -17595,103 +17686,103 @@
       <c r="C3" s="72">
         <v>2</v>
       </c>
-      <c r="D3" s="131"/>
+      <c r="D3" s="135"/>
       <c r="E3" s="72">
         <v>7700</v>
       </c>
-      <c r="F3" s="133"/>
+      <c r="F3" s="137"/>
       <c r="G3" s="72">
         <v>0</v>
       </c>
-      <c r="H3" s="94"/>
+      <c r="H3" s="95"/>
       <c r="I3" s="72">
         <v>24</v>
       </c>
-      <c r="J3" s="126"/>
+      <c r="J3" s="127"/>
       <c r="K3" s="72">
         <v>4</v>
       </c>
-      <c r="L3" s="126"/>
+      <c r="L3" s="127"/>
       <c r="M3" s="72">
         <v>4</v>
       </c>
-      <c r="N3" s="131"/>
+      <c r="N3" s="120"/>
       <c r="O3" s="36">
         <v>4</v>
       </c>
-      <c r="P3" s="121"/>
+      <c r="P3" s="140"/>
       <c r="Q3" s="72">
         <v>0</v>
       </c>
-      <c r="R3" s="131"/>
+      <c r="R3" s="95"/>
       <c r="S3" s="36">
         <v>3</v>
       </c>
-      <c r="T3" s="121"/>
+      <c r="T3" s="95"/>
       <c r="U3" s="72">
         <v>0</v>
       </c>
-      <c r="V3" s="131"/>
+      <c r="V3" s="95"/>
       <c r="W3" s="36">
         <v>4</v>
       </c>
-      <c r="X3" s="121"/>
+      <c r="X3" s="95"/>
       <c r="Y3" s="72">
         <v>4</v>
       </c>
-      <c r="Z3" s="131"/>
+      <c r="Z3" s="120"/>
       <c r="AA3" s="36">
         <v>0</v>
       </c>
-      <c r="AB3" s="131"/>
+      <c r="AB3" s="95"/>
       <c r="AC3" s="72">
         <v>0</v>
       </c>
-      <c r="AD3" s="94"/>
+      <c r="AD3" s="95"/>
       <c r="AE3" s="72">
         <v>10</v>
       </c>
-      <c r="AF3" s="152"/>
+      <c r="AF3" s="160"/>
       <c r="AG3" s="36">
         <v>0</v>
       </c>
-      <c r="AH3" s="94"/>
+      <c r="AH3" s="95"/>
       <c r="AI3" s="72">
         <v>2</v>
       </c>
-      <c r="AJ3" s="94"/>
+      <c r="AJ3" s="95"/>
       <c r="AK3" s="36">
         <v>0</v>
       </c>
-      <c r="AL3" s="121"/>
+      <c r="AL3" s="122"/>
       <c r="AM3" s="72">
         <v>3500</v>
       </c>
-      <c r="AN3" s="119"/>
+      <c r="AN3" s="120"/>
       <c r="AO3" s="36">
         <v>0</v>
       </c>
-      <c r="AP3" s="117"/>
+      <c r="AP3" s="118"/>
       <c r="AQ3" s="72">
         <v>2</v>
       </c>
-      <c r="AR3" s="94"/>
+      <c r="AR3" s="95"/>
       <c r="AS3" s="36">
         <v>10</v>
       </c>
-      <c r="AT3" s="117"/>
+      <c r="AT3" s="118"/>
       <c r="AU3" s="72">
         <v>10</v>
       </c>
-      <c r="AV3" s="126"/>
+      <c r="AV3" s="127"/>
       <c r="AW3" s="36">
         <v>36</v>
       </c>
-      <c r="AX3" s="121"/>
+      <c r="AX3" s="122"/>
       <c r="AY3" s="72">
         <v>2</v>
       </c>
-      <c r="AZ3" s="119"/>
+      <c r="AZ3" s="120"/>
       <c r="BA3" s="37">
         <v>0</v>
       </c>
@@ -17703,7 +17794,7 @@
       <c r="E4" s="61"/>
       <c r="F4" s="62"/>
       <c r="G4" s="61"/>
-      <c r="H4" s="94"/>
+      <c r="H4" s="95"/>
       <c r="I4" s="61"/>
       <c r="J4" s="63" t="s">
         <v>75</v>
@@ -17715,25 +17806,25 @@
       <c r="O4" s="30"/>
       <c r="P4" s="30"/>
       <c r="Q4" s="61"/>
-      <c r="R4" s="62"/>
+      <c r="R4" s="95"/>
       <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
+      <c r="T4" s="95"/>
       <c r="U4" s="61"/>
-      <c r="V4" s="62"/>
+      <c r="V4" s="95"/>
       <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
+      <c r="X4" s="95"/>
       <c r="Y4" s="61"/>
       <c r="Z4" s="62"/>
       <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
+      <c r="AB4" s="95"/>
       <c r="AC4" s="61"/>
-      <c r="AD4" s="94"/>
+      <c r="AD4" s="95"/>
       <c r="AE4" s="61"/>
       <c r="AF4" s="60"/>
       <c r="AG4" s="30"/>
-      <c r="AH4" s="94"/>
+      <c r="AH4" s="95"/>
       <c r="AI4" s="61"/>
-      <c r="AJ4" s="94"/>
+      <c r="AJ4" s="95"/>
       <c r="AK4" s="30"/>
       <c r="AL4" s="30"/>
       <c r="AM4" s="61"/>
@@ -17741,7 +17832,7 @@
       <c r="AO4" s="30"/>
       <c r="AP4" s="78"/>
       <c r="AQ4" s="61"/>
-      <c r="AR4" s="94"/>
+      <c r="AR4" s="95"/>
       <c r="AS4" s="30"/>
       <c r="AT4" s="78"/>
       <c r="AU4" s="61"/>
@@ -17766,132 +17857,139 @@
       <c r="C5" s="70">
         <v>1.7386363636363635</v>
       </c>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="161" t="s">
         <v>57</v>
       </c>
       <c r="E5" s="70">
         <v>22000</v>
       </c>
-      <c r="F5" s="153" t="s">
+      <c r="F5" s="163" t="s">
         <v>54</v>
       </c>
       <c r="G5" s="70">
         <v>0.26136363636363635</v>
       </c>
-      <c r="H5" s="94"/>
+      <c r="H5" s="95"/>
       <c r="I5" s="70">
         <v>30.227272727272727</v>
       </c>
-      <c r="J5" s="112">
+      <c r="J5" s="113">
         <f>I5</f>
         <v>30.227272727272727</v>
       </c>
       <c r="K5" s="70">
         <v>5.5</v>
       </c>
-      <c r="L5" s="112">
+      <c r="L5" s="113">
         <f>K5</f>
         <v>5.5</v>
       </c>
       <c r="M5" s="70">
         <v>1.5454545454545454</v>
       </c>
-      <c r="N5" s="135"/>
+      <c r="N5" s="103" t="s">
+        <v>81</v>
+      </c>
       <c r="O5" s="39">
         <v>2.4545454545454546</v>
       </c>
-      <c r="P5" s="104"/>
+      <c r="P5" s="147" t="s">
+        <v>84</v>
+      </c>
       <c r="Q5" s="70">
         <v>0.45454545454545453</v>
       </c>
-      <c r="R5" s="135"/>
+      <c r="R5" s="95"/>
       <c r="S5" s="39">
         <v>2.3636363636363638</v>
       </c>
-      <c r="T5" s="104"/>
+      <c r="T5" s="95"/>
       <c r="U5" s="70">
         <v>1.7727272727272727</v>
       </c>
-      <c r="V5" s="135"/>
+      <c r="V5" s="95"/>
       <c r="W5" s="39">
         <v>2.9772727272727271</v>
       </c>
-      <c r="X5" s="104"/>
+      <c r="X5" s="95"/>
       <c r="Y5" s="70">
         <v>1.9204545454545454</v>
       </c>
-      <c r="Z5" s="135"/>
+      <c r="Z5" s="103" t="str">
+        <f>N5</f>
+        <v>discordo totalente</v>
+      </c>
       <c r="AA5" s="39">
         <v>0.70454545454545459</v>
       </c>
-      <c r="AB5" s="135"/>
+      <c r="AB5" s="95"/>
       <c r="AC5" s="70">
         <v>1.4545454545454546</v>
       </c>
-      <c r="AD5" s="94"/>
+      <c r="AD5" s="95"/>
       <c r="AE5" s="70">
         <v>5.9545454545454541</v>
       </c>
-      <c r="AF5" s="137">
+      <c r="AF5" s="149">
         <f>AE5</f>
         <v>5.9545454545454541</v>
       </c>
       <c r="AG5" s="39">
         <v>1.8295454545454546</v>
       </c>
-      <c r="AH5" s="94"/>
+      <c r="AH5" s="95"/>
       <c r="AI5" s="70">
         <v>1.8977272727272727</v>
       </c>
-      <c r="AJ5" s="94"/>
+      <c r="AJ5" s="95"/>
       <c r="AK5" s="39">
         <v>0.82954545454545459</v>
       </c>
-      <c r="AL5" s="104" t="s">
+      <c r="AL5" s="105" t="s">
         <v>64</v>
       </c>
       <c r="AM5" s="70">
         <v>4078.409090909091</v>
       </c>
-      <c r="AN5" s="102" t="s">
+      <c r="AN5" s="103" t="s">
         <v>65</v>
       </c>
       <c r="AO5" s="39">
         <v>4.3863636363636367</v>
       </c>
-      <c r="AP5" s="114">
+      <c r="AP5" s="115">
         <f>AO5</f>
         <v>4.3863636363636367</v>
       </c>
       <c r="AQ5" s="70">
         <v>1.7159090909090908</v>
       </c>
-      <c r="AR5" s="94"/>
+      <c r="AR5" s="95"/>
       <c r="AS5" s="39">
         <v>7.8295454545454541</v>
       </c>
-      <c r="AT5" s="114">
+      <c r="AT5" s="115">
         <f>AS5</f>
         <v>7.8295454545454541</v>
       </c>
       <c r="AU5" s="70">
         <v>8.5113636363636367</v>
       </c>
-      <c r="AV5" s="112">
+      <c r="AV5" s="113">
         <f>AU5</f>
         <v>8.5113636363636367</v>
       </c>
       <c r="AW5" s="39">
         <v>38.69318181818182</v>
       </c>
-      <c r="AX5" s="104">
+      <c r="AX5" s="105">
         <f>AW5</f>
         <v>38.69318181818182</v>
       </c>
       <c r="AY5" s="70">
         <v>0.88636363636363635</v>
       </c>
-      <c r="AZ5" s="102" t="s">
+      <c r="AZ5" s="103" t="s">
         <v>73</v>
       </c>
       <c r="BA5" s="39">
@@ -17905,103 +18003,103 @@
       <c r="C6" s="68">
         <v>2</v>
       </c>
-      <c r="D6" s="136"/>
+      <c r="D6" s="162"/>
       <c r="E6" s="68">
         <v>22000</v>
       </c>
-      <c r="F6" s="154"/>
+      <c r="F6" s="164"/>
       <c r="G6" s="68">
         <v>0</v>
       </c>
-      <c r="H6" s="94"/>
+      <c r="H6" s="95"/>
       <c r="I6" s="68">
         <v>36</v>
       </c>
-      <c r="J6" s="113"/>
+      <c r="J6" s="114"/>
       <c r="K6" s="68">
         <v>3</v>
       </c>
-      <c r="L6" s="113"/>
+      <c r="L6" s="114"/>
       <c r="M6" s="68">
         <v>0</v>
       </c>
-      <c r="N6" s="136"/>
+      <c r="N6" s="104"/>
       <c r="O6" s="41">
         <v>3</v>
       </c>
-      <c r="P6" s="105"/>
+      <c r="P6" s="148"/>
       <c r="Q6" s="68">
         <v>0</v>
       </c>
-      <c r="R6" s="136"/>
+      <c r="R6" s="95"/>
       <c r="S6" s="41">
         <v>3</v>
       </c>
-      <c r="T6" s="105"/>
+      <c r="T6" s="95"/>
       <c r="U6" s="68">
         <v>0</v>
       </c>
-      <c r="V6" s="136"/>
+      <c r="V6" s="95"/>
       <c r="W6" s="41">
         <v>4</v>
       </c>
-      <c r="X6" s="105"/>
+      <c r="X6" s="95"/>
       <c r="Y6" s="68">
         <v>0</v>
       </c>
-      <c r="Z6" s="136"/>
+      <c r="Z6" s="104"/>
       <c r="AA6" s="41">
         <v>0</v>
       </c>
-      <c r="AB6" s="136"/>
+      <c r="AB6" s="95"/>
       <c r="AC6" s="68">
         <v>0</v>
       </c>
-      <c r="AD6" s="94"/>
+      <c r="AD6" s="95"/>
       <c r="AE6" s="68">
         <v>10</v>
       </c>
-      <c r="AF6" s="138"/>
+      <c r="AF6" s="150"/>
       <c r="AG6" s="41">
         <v>0</v>
       </c>
-      <c r="AH6" s="94"/>
+      <c r="AH6" s="95"/>
       <c r="AI6" s="68">
         <v>2</v>
       </c>
-      <c r="AJ6" s="94"/>
+      <c r="AJ6" s="95"/>
       <c r="AK6" s="41">
         <v>0</v>
       </c>
-      <c r="AL6" s="105"/>
+      <c r="AL6" s="106"/>
       <c r="AM6" s="68">
         <v>3500</v>
       </c>
-      <c r="AN6" s="103"/>
+      <c r="AN6" s="104"/>
       <c r="AO6" s="41">
         <v>6</v>
       </c>
-      <c r="AP6" s="115"/>
+      <c r="AP6" s="116"/>
       <c r="AQ6" s="68">
         <v>2</v>
       </c>
-      <c r="AR6" s="94"/>
+      <c r="AR6" s="95"/>
       <c r="AS6" s="41">
         <v>10</v>
       </c>
-      <c r="AT6" s="115"/>
+      <c r="AT6" s="116"/>
       <c r="AU6" s="68">
         <v>10</v>
       </c>
-      <c r="AV6" s="113"/>
+      <c r="AV6" s="114"/>
       <c r="AW6" s="41">
         <v>36</v>
       </c>
-      <c r="AX6" s="105"/>
+      <c r="AX6" s="106"/>
       <c r="AY6" s="68">
         <v>1</v>
       </c>
-      <c r="AZ6" s="103"/>
+      <c r="AZ6" s="104"/>
       <c r="BA6" s="41">
         <v>1</v>
       </c>
@@ -18013,7 +18111,7 @@
       <c r="E7" s="61"/>
       <c r="F7" s="62"/>
       <c r="G7" s="61"/>
-      <c r="H7" s="94"/>
+      <c r="H7" s="95"/>
       <c r="I7" s="61"/>
       <c r="J7" s="63" t="s">
         <v>76</v>
@@ -18025,25 +18123,25 @@
       <c r="O7" s="30"/>
       <c r="P7" s="30"/>
       <c r="Q7" s="61"/>
-      <c r="R7" s="62"/>
+      <c r="R7" s="95"/>
       <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
+      <c r="T7" s="95"/>
       <c r="U7" s="61"/>
-      <c r="V7" s="62"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
+      <c r="X7" s="95"/>
       <c r="Y7" s="61"/>
       <c r="Z7" s="62"/>
       <c r="AA7" s="30"/>
-      <c r="AB7" s="30"/>
+      <c r="AB7" s="95"/>
       <c r="AC7" s="61"/>
-      <c r="AD7" s="94"/>
+      <c r="AD7" s="95"/>
       <c r="AE7" s="61"/>
       <c r="AF7" s="60"/>
       <c r="AG7" s="30"/>
-      <c r="AH7" s="94"/>
+      <c r="AH7" s="95"/>
       <c r="AI7" s="61"/>
-      <c r="AJ7" s="94"/>
+      <c r="AJ7" s="95"/>
       <c r="AK7" s="30"/>
       <c r="AL7" s="30"/>
       <c r="AM7" s="61"/>
@@ -18051,7 +18149,7 @@
       <c r="AO7" s="30"/>
       <c r="AP7" s="78"/>
       <c r="AQ7" s="61"/>
-      <c r="AR7" s="94"/>
+      <c r="AR7" s="95"/>
       <c r="AS7" s="30"/>
       <c r="AT7" s="78"/>
       <c r="AU7" s="61"/>
@@ -18074,132 +18172,138 @@
       <c r="C8" s="66">
         <v>1.8333333333333333</v>
       </c>
-      <c r="D8" s="139" t="s">
+      <c r="D8" s="151" t="s">
         <v>57</v>
       </c>
       <c r="E8" s="66">
         <v>16500</v>
       </c>
-      <c r="F8" s="141" t="s">
+      <c r="F8" s="153" t="s">
         <v>56</v>
       </c>
       <c r="G8" s="66">
         <v>0.3</v>
       </c>
-      <c r="H8" s="94"/>
+      <c r="H8" s="95"/>
       <c r="I8" s="66">
         <v>28.233333333333334</v>
       </c>
-      <c r="J8" s="108">
+      <c r="J8" s="109">
         <f>I8</f>
         <v>28.233333333333334</v>
       </c>
       <c r="K8" s="66">
         <v>5.9333333333333336</v>
       </c>
-      <c r="L8" s="108">
+      <c r="L8" s="109">
         <f>K8</f>
         <v>5.9333333333333336</v>
       </c>
       <c r="M8" s="66">
         <v>1.9666666666666666</v>
       </c>
-      <c r="N8" s="139"/>
+      <c r="N8" s="97" t="s">
+        <v>82</v>
+      </c>
       <c r="O8" s="43">
         <v>2.6333333333333333</v>
       </c>
-      <c r="P8" s="106"/>
+      <c r="P8" s="99" t="s">
+        <v>80</v>
+      </c>
       <c r="Q8" s="66">
         <v>0.7</v>
       </c>
-      <c r="R8" s="139"/>
+      <c r="R8" s="95"/>
       <c r="S8" s="43">
         <v>2.1666666666666665</v>
       </c>
-      <c r="T8" s="106"/>
+      <c r="T8" s="95"/>
       <c r="U8" s="66">
         <v>1.7333333333333334</v>
       </c>
-      <c r="V8" s="139"/>
+      <c r="V8" s="95"/>
       <c r="W8" s="43">
         <v>2.4666666666666668</v>
       </c>
-      <c r="X8" s="106"/>
+      <c r="X8" s="95"/>
       <c r="Y8" s="66">
         <v>2.0666666666666669</v>
       </c>
-      <c r="Z8" s="139"/>
+      <c r="Z8" s="97" t="s">
+        <v>84</v>
+      </c>
       <c r="AA8" s="43">
         <v>1</v>
       </c>
-      <c r="AB8" s="139"/>
+      <c r="AB8" s="95"/>
       <c r="AC8" s="66">
         <v>1.4333333333333333</v>
       </c>
-      <c r="AD8" s="94"/>
+      <c r="AD8" s="95"/>
       <c r="AE8" s="66">
         <v>5.8</v>
       </c>
-      <c r="AF8" s="143">
+      <c r="AF8" s="155">
         <f>AE8</f>
         <v>5.8</v>
       </c>
       <c r="AG8" s="43">
         <v>1.4666666666666666</v>
       </c>
-      <c r="AH8" s="94"/>
+      <c r="AH8" s="95"/>
       <c r="AI8" s="66">
         <v>1.8333333333333333</v>
       </c>
-      <c r="AJ8" s="94"/>
+      <c r="AJ8" s="95"/>
       <c r="AK8" s="43">
         <v>1.0333333333333334</v>
       </c>
-      <c r="AL8" s="98" t="s">
+      <c r="AL8" s="99" t="s">
         <v>63</v>
       </c>
       <c r="AM8" s="66">
         <v>3238.3333333333335</v>
       </c>
-      <c r="AN8" s="96" t="s">
+      <c r="AN8" s="97" t="s">
         <v>65</v>
       </c>
       <c r="AO8" s="43">
         <v>4.9666666666666668</v>
       </c>
-      <c r="AP8" s="110">
+      <c r="AP8" s="111">
         <f>AO8</f>
         <v>4.9666666666666668</v>
       </c>
       <c r="AQ8" s="66">
         <v>1.9</v>
       </c>
-      <c r="AR8" s="94"/>
+      <c r="AR8" s="95"/>
       <c r="AS8" s="43">
         <v>7.7666666666666666</v>
       </c>
-      <c r="AT8" s="110">
+      <c r="AT8" s="111">
         <f>AS8</f>
         <v>7.7666666666666666</v>
       </c>
       <c r="AU8" s="66">
         <v>8.0333333333333332</v>
       </c>
-      <c r="AV8" s="108">
+      <c r="AV8" s="109">
         <f>AU8</f>
         <v>8.0333333333333332</v>
       </c>
       <c r="AW8" s="43">
         <v>42.3</v>
       </c>
-      <c r="AX8" s="106">
+      <c r="AX8" s="107">
         <f>AW8</f>
         <v>42.3</v>
       </c>
       <c r="AY8" s="66">
         <v>1.0666666666666667</v>
       </c>
-      <c r="AZ8" s="96" t="s">
+      <c r="AZ8" s="97" t="s">
         <v>74</v>
       </c>
       <c r="BA8" s="43">
@@ -18213,103 +18317,103 @@
       <c r="C9" s="64">
         <v>2</v>
       </c>
-      <c r="D9" s="140"/>
+      <c r="D9" s="152"/>
       <c r="E9" s="64">
         <v>16500</v>
       </c>
-      <c r="F9" s="142"/>
+      <c r="F9" s="154"/>
       <c r="G9" s="64">
         <v>0</v>
       </c>
-      <c r="H9" s="94"/>
+      <c r="H9" s="95"/>
       <c r="I9" s="64">
         <v>24</v>
       </c>
-      <c r="J9" s="109"/>
+      <c r="J9" s="110"/>
       <c r="K9" s="64">
         <v>3</v>
       </c>
-      <c r="L9" s="109"/>
+      <c r="L9" s="110"/>
       <c r="M9" s="64">
         <v>1</v>
       </c>
-      <c r="N9" s="140"/>
+      <c r="N9" s="98"/>
       <c r="O9" s="45">
         <v>4</v>
       </c>
-      <c r="P9" s="107"/>
+      <c r="P9" s="100"/>
       <c r="Q9" s="64">
         <v>0</v>
       </c>
-      <c r="R9" s="140"/>
+      <c r="R9" s="95"/>
       <c r="S9" s="45">
         <v>3</v>
       </c>
-      <c r="T9" s="107"/>
+      <c r="T9" s="95"/>
       <c r="U9" s="64">
         <v>0</v>
       </c>
-      <c r="V9" s="140"/>
+      <c r="V9" s="95"/>
       <c r="W9" s="45">
         <v>4</v>
       </c>
-      <c r="X9" s="107"/>
+      <c r="X9" s="95"/>
       <c r="Y9" s="64">
         <v>3</v>
       </c>
-      <c r="Z9" s="140"/>
+      <c r="Z9" s="98"/>
       <c r="AA9" s="45">
         <v>0</v>
       </c>
-      <c r="AB9" s="140"/>
+      <c r="AB9" s="95"/>
       <c r="AC9" s="64">
         <v>0</v>
       </c>
-      <c r="AD9" s="94"/>
+      <c r="AD9" s="95"/>
       <c r="AE9" s="64">
         <v>10</v>
       </c>
-      <c r="AF9" s="144"/>
+      <c r="AF9" s="156"/>
       <c r="AG9" s="45">
         <v>0</v>
       </c>
-      <c r="AH9" s="94"/>
+      <c r="AH9" s="95"/>
       <c r="AI9" s="64">
         <v>2</v>
       </c>
-      <c r="AJ9" s="94"/>
+      <c r="AJ9" s="95"/>
       <c r="AK9" s="45">
         <v>2</v>
       </c>
-      <c r="AL9" s="99"/>
+      <c r="AL9" s="100"/>
       <c r="AM9" s="64">
         <v>3500</v>
       </c>
-      <c r="AN9" s="97"/>
+      <c r="AN9" s="98"/>
       <c r="AO9" s="45">
         <v>0</v>
       </c>
-      <c r="AP9" s="111"/>
+      <c r="AP9" s="112"/>
       <c r="AQ9" s="64">
         <v>2</v>
       </c>
-      <c r="AR9" s="94"/>
+      <c r="AR9" s="95"/>
       <c r="AS9" s="45">
         <v>10</v>
       </c>
-      <c r="AT9" s="111"/>
+      <c r="AT9" s="112"/>
       <c r="AU9" s="64">
         <v>10</v>
       </c>
-      <c r="AV9" s="109"/>
+      <c r="AV9" s="110"/>
       <c r="AW9" s="45">
         <v>48</v>
       </c>
-      <c r="AX9" s="107"/>
+      <c r="AX9" s="108"/>
       <c r="AY9" s="64">
         <v>1</v>
       </c>
-      <c r="AZ9" s="97"/>
+      <c r="AZ9" s="98"/>
       <c r="BA9" s="45">
         <v>2</v>
       </c>
@@ -18321,7 +18425,7 @@
       <c r="E10" s="61"/>
       <c r="F10" s="62"/>
       <c r="G10" s="61"/>
-      <c r="H10" s="94"/>
+      <c r="H10" s="95"/>
       <c r="I10" s="61"/>
       <c r="J10" s="63" t="s">
         <v>77</v>
@@ -18333,25 +18437,25 @@
       <c r="O10" s="30"/>
       <c r="P10" s="30"/>
       <c r="Q10" s="61"/>
-      <c r="R10" s="62"/>
+      <c r="R10" s="95"/>
       <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
+      <c r="T10" s="95"/>
       <c r="U10" s="61"/>
-      <c r="V10" s="62"/>
+      <c r="V10" s="95"/>
       <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
+      <c r="X10" s="95"/>
       <c r="Y10" s="61"/>
       <c r="Z10" s="62"/>
       <c r="AA10" s="30"/>
-      <c r="AB10" s="30"/>
+      <c r="AB10" s="95"/>
       <c r="AC10" s="61"/>
-      <c r="AD10" s="94"/>
+      <c r="AD10" s="95"/>
       <c r="AE10" s="61"/>
       <c r="AF10" s="60"/>
       <c r="AG10" s="30"/>
-      <c r="AH10" s="94"/>
+      <c r="AH10" s="95"/>
       <c r="AI10" s="61"/>
-      <c r="AJ10" s="94"/>
+      <c r="AJ10" s="95"/>
       <c r="AK10" s="30"/>
       <c r="AL10" s="30"/>
       <c r="AM10" s="61"/>
@@ -18359,7 +18463,7 @@
       <c r="AO10" s="30"/>
       <c r="AP10" s="78"/>
       <c r="AQ10" s="61"/>
-      <c r="AR10" s="94"/>
+      <c r="AR10" s="95"/>
       <c r="AS10" s="30"/>
       <c r="AT10" s="78"/>
       <c r="AU10" s="61"/>
@@ -18382,132 +18486,138 @@
       <c r="C11" s="58">
         <v>1.4615384615384615</v>
       </c>
-      <c r="D11" s="145" t="s">
+      <c r="D11" s="141" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="58">
         <v>21576.923076923078</v>
       </c>
-      <c r="F11" s="147" t="s">
+      <c r="F11" s="143" t="s">
         <v>54</v>
       </c>
       <c r="G11" s="58">
         <v>0.38461538461538464</v>
       </c>
-      <c r="H11" s="94"/>
+      <c r="H11" s="95"/>
       <c r="I11" s="58">
         <v>26.307692307692307</v>
       </c>
-      <c r="J11" s="91">
+      <c r="J11" s="92">
         <f>I11</f>
         <v>26.307692307692307</v>
       </c>
       <c r="K11" s="58">
         <v>4.6923076923076925</v>
       </c>
-      <c r="L11" s="91">
+      <c r="L11" s="92">
         <f>K11</f>
         <v>4.6923076923076925</v>
       </c>
       <c r="M11" s="58">
         <v>2</v>
       </c>
-      <c r="N11" s="145"/>
+      <c r="N11" s="88" t="s">
+        <v>83</v>
+      </c>
       <c r="O11" s="47">
         <v>1.1538461538461537</v>
       </c>
-      <c r="P11" s="89"/>
+      <c r="P11" s="145" t="s">
+        <v>85</v>
+      </c>
       <c r="Q11" s="58">
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="R11" s="145"/>
+      <c r="R11" s="95"/>
       <c r="S11" s="47">
         <v>2.0769230769230771</v>
       </c>
-      <c r="T11" s="89"/>
+      <c r="T11" s="95"/>
       <c r="U11" s="58">
         <v>1.7692307692307692</v>
       </c>
-      <c r="V11" s="145"/>
+      <c r="V11" s="95"/>
       <c r="W11" s="47">
         <v>3.7692307692307692</v>
       </c>
-      <c r="X11" s="89"/>
+      <c r="X11" s="95"/>
       <c r="Y11" s="58">
         <v>2.4615384615384617</v>
       </c>
-      <c r="Z11" s="145"/>
+      <c r="Z11" s="88" t="s">
+        <v>80</v>
+      </c>
       <c r="AA11" s="47">
         <v>0.84615384615384615</v>
       </c>
-      <c r="AB11" s="145"/>
+      <c r="AB11" s="95"/>
       <c r="AC11" s="58">
         <v>1.7692307692307692</v>
       </c>
-      <c r="AD11" s="94"/>
+      <c r="AD11" s="95"/>
       <c r="AE11" s="58">
         <v>6</v>
       </c>
-      <c r="AF11" s="149">
+      <c r="AF11" s="157">
         <f>AE11</f>
         <v>6</v>
       </c>
       <c r="AG11" s="47">
         <v>1.3846153846153846</v>
       </c>
-      <c r="AH11" s="94"/>
+      <c r="AH11" s="95"/>
       <c r="AI11" s="58">
         <v>2.0769230769230771</v>
       </c>
-      <c r="AJ11" s="94"/>
+      <c r="AJ11" s="95"/>
       <c r="AK11" s="47">
         <v>0.61538461538461542</v>
       </c>
-      <c r="AL11" s="89" t="s">
+      <c r="AL11" s="90" t="s">
         <v>64</v>
       </c>
       <c r="AM11" s="58">
         <v>9688.461538461539</v>
       </c>
-      <c r="AN11" s="87" t="s">
+      <c r="AN11" s="88" t="s">
         <v>66</v>
       </c>
       <c r="AO11" s="47">
         <v>6.9230769230769234</v>
       </c>
-      <c r="AP11" s="100">
+      <c r="AP11" s="101">
         <f>AO11</f>
         <v>6.9230769230769234</v>
       </c>
       <c r="AQ11" s="58">
         <v>1.5384615384615385</v>
       </c>
-      <c r="AR11" s="94"/>
+      <c r="AR11" s="95"/>
       <c r="AS11" s="47">
         <v>7.615384615384615</v>
       </c>
-      <c r="AT11" s="100">
+      <c r="AT11" s="101">
         <f>AS11</f>
         <v>7.615384615384615</v>
       </c>
       <c r="AU11" s="58">
         <v>8.4615384615384617</v>
       </c>
-      <c r="AV11" s="91">
+      <c r="AV11" s="92">
         <f>AU11</f>
         <v>8.4615384615384617</v>
       </c>
       <c r="AW11" s="47">
         <v>40.769230769230766</v>
       </c>
-      <c r="AX11" s="89">
+      <c r="AX11" s="90">
         <f>AW11</f>
         <v>40.769230769230766</v>
       </c>
       <c r="AY11" s="58">
         <v>1</v>
       </c>
-      <c r="AZ11" s="87" t="s">
+      <c r="AZ11" s="88" t="s">
         <v>74</v>
       </c>
       <c r="BA11" s="47">
@@ -18521,103 +18631,103 @@
       <c r="C12" s="56">
         <v>1</v>
       </c>
-      <c r="D12" s="146"/>
+      <c r="D12" s="142"/>
       <c r="E12" s="56">
         <v>22000</v>
       </c>
-      <c r="F12" s="148"/>
+      <c r="F12" s="144"/>
       <c r="G12" s="56">
         <v>0</v>
       </c>
-      <c r="H12" s="95"/>
+      <c r="H12" s="96"/>
       <c r="I12" s="56">
         <v>12</v>
       </c>
-      <c r="J12" s="92"/>
+      <c r="J12" s="93"/>
       <c r="K12" s="56">
         <v>2</v>
       </c>
-      <c r="L12" s="92"/>
+      <c r="L12" s="93"/>
       <c r="M12" s="56">
         <v>3</v>
       </c>
-      <c r="N12" s="146"/>
+      <c r="N12" s="89"/>
       <c r="O12" s="48">
         <v>2</v>
       </c>
-      <c r="P12" s="90"/>
+      <c r="P12" s="146"/>
       <c r="Q12" s="56">
         <v>0</v>
       </c>
-      <c r="R12" s="146"/>
+      <c r="R12" s="96"/>
       <c r="S12" s="48">
         <v>3</v>
       </c>
-      <c r="T12" s="90"/>
+      <c r="T12" s="96"/>
       <c r="U12" s="56">
         <v>0</v>
       </c>
-      <c r="V12" s="146"/>
+      <c r="V12" s="96"/>
       <c r="W12" s="48">
         <v>4</v>
       </c>
-      <c r="X12" s="90"/>
+      <c r="X12" s="96"/>
       <c r="Y12" s="56">
         <v>4</v>
       </c>
-      <c r="Z12" s="146"/>
+      <c r="Z12" s="89"/>
       <c r="AA12" s="48">
         <v>0</v>
       </c>
-      <c r="AB12" s="146"/>
+      <c r="AB12" s="96"/>
       <c r="AC12" s="56">
         <v>0</v>
       </c>
-      <c r="AD12" s="95"/>
+      <c r="AD12" s="96"/>
       <c r="AE12" s="56">
         <v>10</v>
       </c>
-      <c r="AF12" s="150"/>
+      <c r="AF12" s="158"/>
       <c r="AG12" s="48">
         <v>0</v>
       </c>
-      <c r="AH12" s="95"/>
+      <c r="AH12" s="96"/>
       <c r="AI12" s="56">
         <v>2</v>
       </c>
-      <c r="AJ12" s="95"/>
+      <c r="AJ12" s="96"/>
       <c r="AK12" s="48">
         <v>0</v>
       </c>
-      <c r="AL12" s="90"/>
+      <c r="AL12" s="91"/>
       <c r="AM12" s="56">
         <v>9450</v>
       </c>
-      <c r="AN12" s="88"/>
+      <c r="AN12" s="89"/>
       <c r="AO12" s="48">
         <v>10</v>
       </c>
-      <c r="AP12" s="101"/>
+      <c r="AP12" s="102"/>
       <c r="AQ12" s="56">
         <v>2</v>
       </c>
-      <c r="AR12" s="95"/>
+      <c r="AR12" s="96"/>
       <c r="AS12" s="48">
         <v>10</v>
       </c>
-      <c r="AT12" s="101"/>
+      <c r="AT12" s="102"/>
       <c r="AU12" s="56">
         <v>10</v>
       </c>
-      <c r="AV12" s="92"/>
+      <c r="AV12" s="93"/>
       <c r="AW12" s="48">
         <v>36</v>
       </c>
-      <c r="AX12" s="90"/>
+      <c r="AX12" s="91"/>
       <c r="AY12" s="56">
         <v>1</v>
       </c>
-      <c r="AZ12" s="88"/>
+      <c r="AZ12" s="89"/>
       <c r="BA12" s="48">
         <v>3</v>
       </c>
@@ -18716,285 +18826,287 @@
       <c r="A15" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A16" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-    </row>
-    <row r="18" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+    </row>
+    <row r="18" spans="1:11" ht="61" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-    </row>
-    <row r="19" spans="1:5" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="K18" s="81"/>
+    </row>
+    <row r="19" spans="1:11" ht="38" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-    </row>
-    <row r="20" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+    </row>
+    <row r="20" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-    </row>
-    <row r="21" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="K20" s="81"/>
+    </row>
+    <row r="21" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-    </row>
-    <row r="22" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+    </row>
+    <row r="22" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-    </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="K22" s="81"/>
+    </row>
+    <row r="23" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-    </row>
-    <row r="24" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+    </row>
+    <row r="24" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-    </row>
-    <row r="25" spans="1:5" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="K24" s="81"/>
+    </row>
+    <row r="25" spans="1:11" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="81" t="s">
+      <c r="B25" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-    </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+    </row>
+    <row r="26" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="81" t="s">
+      <c r="B26" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-    </row>
-    <row r="27" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="K26" s="81"/>
+    </row>
+    <row r="27" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-    </row>
-    <row r="28" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+    </row>
+    <row r="28" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
-    </row>
-    <row r="29" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+    </row>
+    <row r="29" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="81" t="s">
+      <c r="B29" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-    </row>
-    <row r="30" spans="1:5" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+    </row>
+    <row r="30" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="81" t="s">
+      <c r="B30" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-    </row>
-    <row r="31" spans="1:5" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+    </row>
+    <row r="31" spans="1:11" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="81" t="s">
+      <c r="B31" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-    </row>
-    <row r="32" spans="1:5" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
+    </row>
+    <row r="32" spans="1:11" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="81" t="s">
+      <c r="B32" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
     </row>
     <row r="33" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="81" t="s">
+      <c r="B33" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="83"/>
     </row>
     <row r="34" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
     </row>
     <row r="35" spans="1:5" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="81" t="s">
+      <c r="B35" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
     </row>
     <row r="36" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="81" t="s">
+      <c r="B36" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="83"/>
     </row>
     <row r="37" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="81" t="s">
+      <c r="B37" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
     </row>
     <row r="38" spans="1:5" ht="47" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="81" t="s">
+      <c r="B38" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
     </row>
     <row r="39" spans="1:5" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="81" t="s">
+      <c r="B39" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="83"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="135">
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
+  <mergeCells count="120">
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:E16"/>
@@ -19003,10 +19115,7 @@
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B39:E39"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="X11:X12"/>
     <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AB11:AB12"/>
     <mergeCell ref="AF11:AF12"/>
     <mergeCell ref="AD2:AD12"/>
     <mergeCell ref="AF2:AF3"/>
@@ -19026,6 +19135,10 @@
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="AB2:AB12"/>
     <mergeCell ref="AF5:AF6"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="F8:F9"/>
@@ -19033,27 +19146,18 @@
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="P8:P9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="X8:X9"/>
     <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AB8:AB9"/>
     <mergeCell ref="AF8:AF9"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="R2:R12"/>
+    <mergeCell ref="T2:T12"/>
     <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="P5:P6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="X5:X6"/>
     <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="V2:V12"/>
+    <mergeCell ref="X2:X12"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="H2:H12"/>
@@ -19061,16 +19165,12 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="P2:P3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="T2:T3"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="N11:N12"/>
     <mergeCell ref="P11:P12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="T11:T12"/>
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AK1:AL1"/>
